--- a/charts/payout_dia_balance_2500.xlsx
+++ b/charts/payout_dia_balance_2500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrzenk25/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrush/Development/tokenomics.io/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF1457C-F3AE-AC4C-9B24-302A1AFBF2CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C00A3-0B7F-AA4D-8EB5-E7ED686F8B4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="480" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="35280" windowHeight="20360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="1" r:id="rId1"/>
@@ -18,58 +18,7 @@
     <sheet name="Chart3" sheetId="4" r:id="rId3"/>
     <sheet name="payout_dia_balance_2500" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">payout_dia_balance_2500!$U$381:$U$479</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">payout_dia_balance_2500!$S$381:$S$537</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">payout_dia_balance_2500!$T$381:$T$537</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">payout_dia_balance_2500!$U$380</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">payout_dia_balance_2500!$U$381:$U$537</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">payout_dia_balance_2500!$V$381:$V$537</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">payout_dia_balance_2500!$V$380</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">payout_dia_balance_2500!$V$381:$V$479</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">payout_dia_balance_2500!$S$381:$S$479</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">payout_dia_balance_2500!$T$380</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">payout_dia_balance_2500!$T$381:$T$479</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7misZB5lpjAkiChStMe8oE6Rtw8Ymg=="/>
@@ -160,8 +109,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -223,10 +172,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11473,9 +11422,6 @@
                 <c:pt idx="155" formatCode="#,##0.00">
                   <c:v>270691.96368175995</c:v>
                 </c:pt>
-                <c:pt idx="156" formatCode="#,##0.00">
-                  <c:v>270691.96368175995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11674,9 +11620,6 @@
                   <c:v>79406.412651233026</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="#,##0.00">
-                  <c:v>79406.412651233026</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="#,##0.00">
                   <c:v>79406.412651233026</c:v>
                 </c:pt>
               </c:numCache>
@@ -12471,6 +12414,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="707795551"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -13744,7 +13688,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{70818118-438C-A04E-9E05-D8C0DF3FC67A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="150" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13755,7 +13699,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B03F8F6-C3FF-C747-A1A0-69EC75940F28}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13799,7 +13743,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671034" cy="6279931"/>
+    <xdr:ext cx="8678333" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13832,7 +13776,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671034" cy="6279931"/>
+    <xdr:ext cx="8678333" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13909,7 +13853,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>2020-12-22</a:t>
+            <a:t>on 2020-12-22</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
@@ -13929,21 +13873,6 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>DAI payout</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -13956,7 +13885,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> claims begin.</a:t>
+            <a:t>Round 8 ends. DAI match payouts available</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -13987,7 +13916,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>2021-03-22</a:t>
+            <a:t>by 2021-03-22</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -14004,7 +13933,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>179 grants have claimed 270,692 DAI in total; </a:t>
+            <a:t>167 grants have claimed 270,692 DAI in total</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -14021,7 +13950,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>79,406 DAI remains unclaimed by 167 grants.</a:t>
+            <a:t>79,406 DAI remains unclaimed by 197 grants</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -14101,12 +14030,133 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="bg2"/>
               </a:solidFill>
             </a:rPr>
             <a:t>DAI</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00585</cdr:x>
+      <cdr:y>0.00808</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21264</cdr:x>
+      <cdr:y>0.06074</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40AE210-95F3-AF4B-8C41-8BCB20B71D11}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="1794550" cy="331294"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="600" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copyright © 2021, TrueBlocks, LLC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="600" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -14315,8 +14365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView topLeftCell="F469" workbookViewId="0">
-      <selection activeCell="S381" sqref="S381:S537"/>
+    <sheetView topLeftCell="F503" workbookViewId="0">
+      <selection activeCell="P535" sqref="P535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27274,6 +27324,10 @@
       <c r="L369" s="1">
         <v>363</v>
       </c>
+      <c r="M369">
+        <f>+L368-L369</f>
+        <v>1</v>
+      </c>
       <c r="N369" s="14">
         <f t="shared" ref="N369:N537" si="1">I369</f>
         <v>44187.863703703704</v>
@@ -27333,6 +27387,10 @@
       <c r="L370" s="1">
         <v>362</v>
       </c>
+      <c r="M370">
+        <f t="shared" ref="M370:M433" si="5">+L369-L370</f>
+        <v>1</v>
+      </c>
       <c r="N370" s="14">
         <f t="shared" si="1"/>
         <v>44187.865069444444</v>
@@ -27346,11 +27404,11 @@
         <v>1</v>
       </c>
       <c r="Q370" s="6">
-        <f t="shared" ref="Q370:R370" si="5">K369-O370</f>
+        <f t="shared" ref="Q370:R370" si="6">K369-O370</f>
         <v>341529.07626700751</v>
       </c>
       <c r="R370" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
     </row>
@@ -27392,6 +27450,10 @@
       <c r="L371" s="1">
         <v>361</v>
       </c>
+      <c r="M371">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N371" s="14">
         <f t="shared" si="1"/>
         <v>44187.9374537037</v>
@@ -27405,11 +27467,11 @@
         <v>1</v>
       </c>
       <c r="Q371" s="6">
-        <f t="shared" ref="Q371:R371" si="6">K370-O371</f>
+        <f t="shared" ref="Q371:R371" si="7">K370-O371</f>
         <v>318580.12864993821</v>
       </c>
       <c r="R371" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>361</v>
       </c>
     </row>
@@ -27451,6 +27513,10 @@
       <c r="L372" s="1">
         <v>360</v>
       </c>
+      <c r="M372">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N372" s="14">
         <f t="shared" si="1"/>
         <v>44187.943124999998</v>
@@ -27464,11 +27530,11 @@
         <v>1</v>
       </c>
       <c r="Q372" s="6">
-        <f t="shared" ref="Q372:R372" si="7">K371-O372</f>
+        <f t="shared" ref="Q372:R372" si="8">K371-O372</f>
         <v>318186.77559695469</v>
       </c>
       <c r="R372" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
     </row>
@@ -27510,6 +27576,10 @@
       <c r="L373" s="1">
         <v>359</v>
       </c>
+      <c r="M373">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N373" s="14">
         <f t="shared" si="1"/>
         <v>44187.966354166667</v>
@@ -27523,11 +27593,11 @@
         <v>1</v>
       </c>
       <c r="Q373" s="6">
-        <f t="shared" ref="Q373:R373" si="8">K372-O373</f>
+        <f t="shared" ref="Q373:R373" si="9">K372-O373</f>
         <v>318186.31260955852</v>
       </c>
       <c r="R373" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>359</v>
       </c>
     </row>
@@ -27569,6 +27639,10 @@
       <c r="L374" s="1">
         <v>358</v>
       </c>
+      <c r="M374">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N374" s="14">
         <f t="shared" si="1"/>
         <v>44187.96675925926</v>
@@ -27582,11 +27656,11 @@
         <v>1</v>
       </c>
       <c r="Q374" s="6">
-        <f t="shared" ref="Q374:R374" si="9">K373-O374</f>
+        <f t="shared" ref="Q374:R374" si="10">K373-O374</f>
         <v>315505.00833374285</v>
       </c>
       <c r="R374" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>358</v>
       </c>
     </row>
@@ -27628,6 +27702,10 @@
       <c r="L375" s="1">
         <v>357</v>
       </c>
+      <c r="M375">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N375" s="14">
         <f t="shared" si="1"/>
         <v>44187.976504629631</v>
@@ -27641,11 +27719,11 @@
         <v>1</v>
       </c>
       <c r="Q375" s="6">
-        <f t="shared" ref="Q375:R375" si="10">K374-O375</f>
+        <f t="shared" ref="Q375:R375" si="11">K374-O375</f>
         <v>315378.7712864565</v>
       </c>
       <c r="R375" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>357</v>
       </c>
     </row>
@@ -27687,6 +27765,10 @@
       <c r="L376" s="1">
         <v>356</v>
       </c>
+      <c r="M376">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N376" s="14">
         <f t="shared" si="1"/>
         <v>44187.976712962962</v>
@@ -27700,11 +27782,11 @@
         <v>1</v>
       </c>
       <c r="Q376" s="6">
-        <f t="shared" ref="Q376:R376" si="11">K375-O376</f>
+        <f t="shared" ref="Q376:R376" si="12">K375-O376</f>
         <v>315378.02506429772</v>
       </c>
       <c r="R376" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>356</v>
       </c>
     </row>
@@ -27746,6 +27828,10 @@
       <c r="L377" s="1">
         <v>355</v>
       </c>
+      <c r="M377">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N377" s="14">
         <f t="shared" si="1"/>
         <v>44187.98159722222</v>
@@ -27759,11 +27845,11 @@
         <v>1</v>
       </c>
       <c r="Q377" s="6">
-        <f t="shared" ref="Q377:R377" si="12">K376-O377</f>
+        <f t="shared" ref="Q377:R377" si="13">K376-O377</f>
         <v>315291.89627113257</v>
       </c>
       <c r="R377" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>355</v>
       </c>
     </row>
@@ -27805,6 +27891,10 @@
       <c r="L378" s="1">
         <v>354</v>
       </c>
+      <c r="M378">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N378" s="14">
         <f t="shared" si="1"/>
         <v>44187.991018518522</v>
@@ -27818,11 +27908,11 @@
         <v>1</v>
       </c>
       <c r="Q378" s="6">
-        <f t="shared" ref="Q378:R378" si="13">K377-O378</f>
+        <f t="shared" ref="Q378:R378" si="14">K377-O378</f>
         <v>314678.13150754577</v>
       </c>
       <c r="R378" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>354</v>
       </c>
       <c r="T378" s="4"/>
@@ -27865,6 +27955,10 @@
       <c r="L379" s="1">
         <v>353</v>
       </c>
+      <c r="M379">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N379" s="14">
         <f t="shared" si="1"/>
         <v>44187.991469907407</v>
@@ -27878,11 +27972,11 @@
         <v>1</v>
       </c>
       <c r="Q379" s="6">
-        <f t="shared" ref="Q379:R379" si="14">K378-O379</f>
+        <f t="shared" ref="Q379:R379" si="15">K378-O379</f>
         <v>313807.16857892036</v>
       </c>
       <c r="R379" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>353</v>
       </c>
       <c r="T379" s="4"/>
@@ -27926,6 +28020,10 @@
       <c r="L380" s="1">
         <v>352</v>
       </c>
+      <c r="M380">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N380" s="14">
         <f t="shared" si="1"/>
         <v>44187.996828703705</v>
@@ -27939,11 +28037,11 @@
         <v>1</v>
       </c>
       <c r="Q380" s="6">
-        <f t="shared" ref="Q380:R380" si="15">K379-O380</f>
+        <f t="shared" ref="Q380:R380" si="16">K379-O380</f>
         <v>313760.19560449291</v>
       </c>
       <c r="R380" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>352</v>
       </c>
       <c r="T380" s="13" t="s">
@@ -28000,6 +28098,10 @@
       <c r="L381" s="1">
         <v>351</v>
       </c>
+      <c r="M381">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N381" s="14">
         <f t="shared" si="1"/>
         <v>44187.996828703705</v>
@@ -28013,18 +28115,18 @@
         <v>1</v>
       </c>
       <c r="Q381" s="6">
-        <f t="shared" ref="Q381:R381" si="16">K380-O381</f>
+        <f t="shared" ref="Q381:R381" si="17">K380-O381</f>
         <v>313741.79074452753</v>
       </c>
       <c r="R381" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>351</v>
       </c>
       <c r="S381" s="14">
         <v>44187</v>
       </c>
       <c r="T381" s="6">
-        <f t="shared" ref="T381" si="17">SUM(O369:O381)</f>
+        <f t="shared" ref="T381" si="18">SUM(O369:O381)</f>
         <v>36356.58558846543</v>
       </c>
       <c r="U381" s="6">
@@ -28083,6 +28185,10 @@
       <c r="L382" s="1">
         <v>350</v>
       </c>
+      <c r="M382">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N382" s="14">
         <f t="shared" si="1"/>
         <v>44188.005289351851</v>
@@ -28096,16 +28202,16 @@
         <v>1</v>
       </c>
       <c r="Q382" s="6">
-        <f t="shared" ref="Q382:R382" si="18">K381-O382</f>
+        <f t="shared" ref="Q382:R382" si="19">K381-O382</f>
         <v>309517.46708796115</v>
       </c>
       <c r="R382" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>350</v>
       </c>
       <c r="S382" s="15"/>
       <c r="V382" s="10">
-        <f t="shared" ref="V382:V445" si="19">+K382</f>
+        <f t="shared" ref="V382:V445" si="20">+K382</f>
         <v>309517.46708796115</v>
       </c>
       <c r="W382" s="10"/>
@@ -28148,6 +28254,10 @@
       <c r="L383" s="1">
         <v>349</v>
       </c>
+      <c r="M383">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N383" s="14">
         <f t="shared" si="1"/>
         <v>44188.008553240739</v>
@@ -28161,16 +28271,16 @@
         <v>1</v>
       </c>
       <c r="Q383" s="6">
-        <f t="shared" ref="Q383:R383" si="20">K382-O383</f>
+        <f t="shared" ref="Q383:R383" si="21">K382-O383</f>
         <v>309400.88448788429</v>
       </c>
       <c r="R383" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>349</v>
       </c>
       <c r="S383" s="15"/>
       <c r="V383" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>309400.88448788429</v>
       </c>
       <c r="W383" s="10"/>
@@ -28213,6 +28323,10 @@
       <c r="L384" s="1">
         <v>348</v>
       </c>
+      <c r="M384">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N384" s="14">
         <f t="shared" si="1"/>
         <v>44188.008553240739</v>
@@ -28226,16 +28340,16 @@
         <v>1</v>
       </c>
       <c r="Q384" s="6">
-        <f t="shared" ref="Q384:R384" si="21">K383-O384</f>
+        <f t="shared" ref="Q384:R384" si="22">K383-O384</f>
         <v>309400.88448788429</v>
       </c>
       <c r="R384" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>348</v>
       </c>
       <c r="S384" s="15"/>
       <c r="V384" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>309400.88448788429</v>
       </c>
       <c r="W384" s="10"/>
@@ -28278,6 +28392,10 @@
       <c r="L385" s="1">
         <v>347</v>
       </c>
+      <c r="M385">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N385" s="14">
         <f t="shared" si="1"/>
         <v>44188.021574074075</v>
@@ -28291,16 +28409,16 @@
         <v>1</v>
       </c>
       <c r="Q385" s="6">
-        <f t="shared" ref="Q385:R385" si="22">K384-O385</f>
+        <f t="shared" ref="Q385:R385" si="23">K384-O385</f>
         <v>309031.11922595452</v>
       </c>
       <c r="R385" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>347</v>
       </c>
       <c r="S385" s="15"/>
       <c r="V385" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>309031.11922595452</v>
       </c>
       <c r="W385" s="10"/>
@@ -28343,6 +28461,10 @@
       <c r="L386" s="1">
         <v>346</v>
       </c>
+      <c r="M386">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N386" s="14">
         <f t="shared" si="1"/>
         <v>44188.024282407408</v>
@@ -28356,16 +28478,16 @@
         <v>1</v>
       </c>
       <c r="Q386" s="6">
-        <f t="shared" ref="Q386:R386" si="23">K385-O386</f>
+        <f t="shared" ref="Q386:R386" si="24">K385-O386</f>
         <v>308619.28442759713</v>
       </c>
       <c r="R386" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>346</v>
       </c>
       <c r="S386" s="15"/>
       <c r="V386" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>308619.28442759713</v>
       </c>
       <c r="W386" s="10"/>
@@ -28408,6 +28530,10 @@
       <c r="L387" s="1">
         <v>345</v>
       </c>
+      <c r="M387">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N387" s="14">
         <f t="shared" si="1"/>
         <v>44188.02621527778</v>
@@ -28421,16 +28547,16 @@
         <v>1</v>
       </c>
       <c r="Q387" s="6">
-        <f t="shared" ref="Q387:R387" si="24">K386-O387</f>
+        <f t="shared" ref="Q387:R387" si="25">K386-O387</f>
         <v>304605.59990614036</v>
       </c>
       <c r="R387" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>345</v>
       </c>
       <c r="S387" s="15"/>
       <c r="V387" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>304605.59990614036</v>
       </c>
       <c r="W387" s="10"/>
@@ -28473,6 +28599,10 @@
       <c r="L388" s="1">
         <v>344</v>
       </c>
+      <c r="M388">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N388" s="14">
         <f t="shared" si="1"/>
         <v>44188.026226851849</v>
@@ -28486,16 +28616,16 @@
         <v>1</v>
       </c>
       <c r="Q388" s="6">
-        <f t="shared" ref="Q388:R388" si="25">K387-O388</f>
+        <f t="shared" ref="Q388:R388" si="26">K387-O388</f>
         <v>299299.16133284086</v>
       </c>
       <c r="R388" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>344</v>
       </c>
       <c r="S388" s="15"/>
       <c r="V388" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>299299.16133284086</v>
       </c>
       <c r="W388" s="10"/>
@@ -28538,6 +28668,10 @@
       <c r="L389" s="1">
         <v>343</v>
       </c>
+      <c r="M389">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N389" s="14">
         <f t="shared" si="1"/>
         <v>44188.032013888886</v>
@@ -28551,16 +28685,16 @@
         <v>1</v>
       </c>
       <c r="Q389" s="6">
-        <f t="shared" ref="Q389:R389" si="26">K388-O389</f>
+        <f t="shared" ref="Q389:R389" si="27">K388-O389</f>
         <v>299083.53315223823</v>
       </c>
       <c r="R389" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>343</v>
       </c>
       <c r="S389" s="15"/>
       <c r="V389" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>299083.53315223823</v>
       </c>
       <c r="W389" s="10"/>
@@ -28603,6 +28737,10 @@
       <c r="L390" s="1">
         <v>342</v>
       </c>
+      <c r="M390">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N390" s="14">
         <f t="shared" si="1"/>
         <v>44188.032453703701</v>
@@ -28616,16 +28754,16 @@
         <v>1</v>
       </c>
       <c r="Q390" s="6">
-        <f t="shared" ref="Q390:R390" si="27">K389-O390</f>
+        <f t="shared" ref="Q390:R390" si="28">K389-O390</f>
         <v>298939.18150446506</v>
       </c>
       <c r="R390" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>342</v>
       </c>
       <c r="S390" s="15"/>
       <c r="V390" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298939.18150446506</v>
       </c>
       <c r="W390" s="10"/>
@@ -28668,6 +28806,10 @@
       <c r="L391" s="1">
         <v>341</v>
       </c>
+      <c r="M391">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N391" s="14">
         <f t="shared" si="1"/>
         <v>44188.039953703701</v>
@@ -28681,16 +28823,16 @@
         <v>1</v>
       </c>
       <c r="Q391" s="6">
-        <f t="shared" ref="Q391:R391" si="28">K390-O391</f>
+        <f t="shared" ref="Q391:R391" si="29">K390-O391</f>
         <v>298925.11549089052</v>
       </c>
       <c r="R391" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>341</v>
       </c>
       <c r="S391" s="15"/>
       <c r="V391" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298925.11549089052</v>
       </c>
       <c r="W391" s="10"/>
@@ -28733,6 +28875,10 @@
       <c r="L392" s="1">
         <v>340</v>
       </c>
+      <c r="M392">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N392" s="14">
         <f t="shared" si="1"/>
         <v>44188.040960648148</v>
@@ -28746,16 +28892,16 @@
         <v>1</v>
       </c>
       <c r="Q392" s="6">
-        <f t="shared" ref="Q392:R392" si="29">K391-O392</f>
+        <f t="shared" ref="Q392:R392" si="30">K391-O392</f>
         <v>298917.19499053364</v>
       </c>
       <c r="R392" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>340</v>
       </c>
       <c r="S392" s="15"/>
       <c r="V392" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298917.19499053364</v>
       </c>
       <c r="W392" s="10"/>
@@ -28798,6 +28944,10 @@
       <c r="L393" s="1">
         <v>339</v>
       </c>
+      <c r="M393">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N393" s="14">
         <f t="shared" si="1"/>
         <v>44188.049432870372</v>
@@ -28811,16 +28961,16 @@
         <v>1</v>
       </c>
       <c r="Q393" s="6">
-        <f t="shared" ref="Q393:R393" si="30">K392-O393</f>
+        <f t="shared" ref="Q393:R393" si="31">K392-O393</f>
         <v>298819.44613114791</v>
       </c>
       <c r="R393" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>339</v>
       </c>
       <c r="S393" s="15"/>
       <c r="V393" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298819.44613114791</v>
       </c>
       <c r="W393" s="10"/>
@@ -28863,6 +29013,10 @@
       <c r="L394" s="1">
         <v>338</v>
       </c>
+      <c r="M394">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N394" s="14">
         <f t="shared" si="1"/>
         <v>44188.049791666665</v>
@@ -28876,16 +29030,16 @@
         <v>1</v>
       </c>
       <c r="Q394" s="6">
-        <f t="shared" ref="Q394:R394" si="31">K393-O394</f>
+        <f t="shared" ref="Q394:R394" si="32">K393-O394</f>
         <v>298803.92335351248</v>
       </c>
       <c r="R394" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>338</v>
       </c>
       <c r="S394" s="15"/>
       <c r="V394" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298803.92335351248</v>
       </c>
       <c r="W394" s="10"/>
@@ -28928,6 +29082,10 @@
       <c r="L395" s="1">
         <v>337</v>
       </c>
+      <c r="M395">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N395" s="14">
         <f t="shared" si="1"/>
         <v>44188.050173611111</v>
@@ -28941,16 +29099,16 @@
         <v>1</v>
       </c>
       <c r="Q395" s="6">
-        <f t="shared" ref="Q395:R395" si="32">K394-O395</f>
+        <f t="shared" ref="Q395:R395" si="33">K394-O395</f>
         <v>298628.60714121553</v>
       </c>
       <c r="R395" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>337</v>
       </c>
       <c r="S395" s="15"/>
       <c r="V395" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298628.60714121553</v>
       </c>
       <c r="W395" s="10"/>
@@ -28993,6 +29151,10 @@
       <c r="L396" s="1">
         <v>336</v>
       </c>
+      <c r="M396">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N396" s="14">
         <f t="shared" si="1"/>
         <v>44188.060659722221</v>
@@ -29006,16 +29168,16 @@
         <v>1</v>
       </c>
       <c r="Q396" s="6">
-        <f t="shared" ref="Q396:R396" si="33">K395-O396</f>
+        <f t="shared" ref="Q396:R396" si="34">K395-O396</f>
         <v>298401.09144438209</v>
       </c>
       <c r="R396" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>336</v>
       </c>
       <c r="S396" s="15"/>
       <c r="V396" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>298401.09144438209</v>
       </c>
       <c r="W396" s="10"/>
@@ -29058,6 +29220,10 @@
       <c r="L397" s="1">
         <v>335</v>
       </c>
+      <c r="M397">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N397" s="14">
         <f t="shared" si="1"/>
         <v>44188.062858796293</v>
@@ -29071,16 +29237,16 @@
         <v>1</v>
       </c>
       <c r="Q397" s="6">
-        <f t="shared" ref="Q397:R397" si="34">K396-O397</f>
+        <f t="shared" ref="Q397:R397" si="35">K396-O397</f>
         <v>297602.55380150076</v>
       </c>
       <c r="R397" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>335</v>
       </c>
       <c r="S397" s="15"/>
       <c r="V397" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>297602.55380150076</v>
       </c>
       <c r="W397" s="10"/>
@@ -29123,6 +29289,10 @@
       <c r="L398" s="1">
         <v>334</v>
       </c>
+      <c r="M398">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N398" s="14">
         <f t="shared" si="1"/>
         <v>44188.065763888888</v>
@@ -29136,16 +29306,16 @@
         <v>1</v>
       </c>
       <c r="Q398" s="6">
-        <f t="shared" ref="Q398:R398" si="35">K397-O398</f>
+        <f t="shared" ref="Q398:R398" si="36">K397-O398</f>
         <v>297149.11405645229</v>
       </c>
       <c r="R398" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>334</v>
       </c>
       <c r="S398" s="15"/>
       <c r="V398" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>297149.11405645229</v>
       </c>
       <c r="W398" s="10"/>
@@ -29188,6 +29358,10 @@
       <c r="L399" s="1">
         <v>333</v>
       </c>
+      <c r="M399">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N399" s="14">
         <f t="shared" si="1"/>
         <v>44188.089398148149</v>
@@ -29201,16 +29375,16 @@
         <v>1</v>
       </c>
       <c r="Q399" s="6">
-        <f t="shared" ref="Q399:R399" si="36">K398-O399</f>
+        <f t="shared" ref="Q399:R399" si="37">K398-O399</f>
         <v>292652.59284316137</v>
       </c>
       <c r="R399" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>333</v>
       </c>
       <c r="S399" s="15"/>
       <c r="V399" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>292652.59284316137</v>
       </c>
       <c r="W399" s="10"/>
@@ -29253,6 +29427,10 @@
       <c r="L400" s="1">
         <v>332</v>
       </c>
+      <c r="M400">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N400" s="14">
         <f t="shared" si="1"/>
         <v>44188.096863425926</v>
@@ -29266,16 +29444,16 @@
         <v>1</v>
       </c>
       <c r="Q400" s="6">
-        <f t="shared" ref="Q400:R400" si="37">K399-O400</f>
+        <f t="shared" ref="Q400:R400" si="38">K399-O400</f>
         <v>292319.78384092369</v>
       </c>
       <c r="R400" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>332</v>
       </c>
       <c r="S400" s="15"/>
       <c r="V400" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>292319.78384092369</v>
       </c>
       <c r="W400" s="10"/>
@@ -29318,6 +29496,10 @@
       <c r="L401" s="1">
         <v>331</v>
       </c>
+      <c r="M401">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N401" s="14">
         <f t="shared" si="1"/>
         <v>44188.09778935185</v>
@@ -29331,16 +29513,16 @@
         <v>1</v>
       </c>
       <c r="Q401" s="6">
-        <f t="shared" ref="Q401:R401" si="38">K400-O401</f>
+        <f t="shared" ref="Q401:R401" si="39">K400-O401</f>
         <v>289345.3759182184</v>
       </c>
       <c r="R401" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>331</v>
       </c>
       <c r="S401" s="15"/>
       <c r="V401" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>289345.3759182184</v>
       </c>
       <c r="W401" s="10"/>
@@ -29383,6 +29565,10 @@
       <c r="L402" s="1">
         <v>330</v>
       </c>
+      <c r="M402">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N402" s="14">
         <f t="shared" si="1"/>
         <v>44188.098900462966</v>
@@ -29396,16 +29582,16 @@
         <v>1</v>
       </c>
       <c r="Q402" s="6">
-        <f t="shared" ref="Q402:R402" si="39">K401-O402</f>
+        <f t="shared" ref="Q402:R402" si="40">K401-O402</f>
         <v>287189.97183354245</v>
       </c>
       <c r="R402" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>330</v>
       </c>
       <c r="S402" s="15"/>
       <c r="V402" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>287189.97183354245</v>
       </c>
       <c r="W402" s="10"/>
@@ -29448,6 +29634,10 @@
       <c r="L403" s="1">
         <v>329</v>
       </c>
+      <c r="M403">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N403" s="14">
         <f t="shared" si="1"/>
         <v>44188.102453703701</v>
@@ -29461,16 +29651,16 @@
         <v>1</v>
       </c>
       <c r="Q403" s="6">
-        <f t="shared" ref="Q403:R403" si="40">K402-O403</f>
+        <f t="shared" ref="Q403:R403" si="41">K402-O403</f>
         <v>287181.29634660453</v>
       </c>
       <c r="R403" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>329</v>
       </c>
       <c r="S403" s="15"/>
       <c r="V403" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>287181.29634660453</v>
       </c>
       <c r="W403" s="10"/>
@@ -29513,6 +29703,10 @@
       <c r="L404" s="1">
         <v>328</v>
       </c>
+      <c r="M404">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N404" s="14">
         <f t="shared" si="1"/>
         <v>44188.108819444446</v>
@@ -29526,16 +29720,16 @@
         <v>1</v>
       </c>
       <c r="Q404" s="6">
-        <f t="shared" ref="Q404:R404" si="41">K403-O404</f>
+        <f t="shared" ref="Q404:R404" si="42">K403-O404</f>
         <v>287116.44867693423</v>
       </c>
       <c r="R404" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>328</v>
       </c>
       <c r="S404" s="15"/>
       <c r="V404" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>287116.44867693423</v>
       </c>
       <c r="W404" s="10"/>
@@ -29578,6 +29772,10 @@
       <c r="L405" s="1">
         <v>327</v>
       </c>
+      <c r="M405">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N405" s="14">
         <f t="shared" si="1"/>
         <v>44188.121458333335</v>
@@ -29591,16 +29789,16 @@
         <v>1</v>
       </c>
       <c r="Q405" s="6">
-        <f t="shared" ref="Q405:R405" si="42">K404-O405</f>
+        <f t="shared" ref="Q405:R405" si="43">K404-O405</f>
         <v>287095.95131217892</v>
       </c>
       <c r="R405" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>327</v>
       </c>
       <c r="S405" s="15"/>
       <c r="V405" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>287095.95131217892</v>
       </c>
       <c r="W405" s="10"/>
@@ -29643,6 +29841,10 @@
       <c r="L406" s="1">
         <v>326</v>
       </c>
+      <c r="M406">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N406" s="14">
         <f t="shared" si="1"/>
         <v>44188.122407407405</v>
@@ -29656,16 +29858,16 @@
         <v>1</v>
       </c>
       <c r="Q406" s="6">
-        <f t="shared" ref="Q406:R406" si="43">K405-O406</f>
+        <f t="shared" ref="Q406:R406" si="44">K405-O406</f>
         <v>286276.6162966924</v>
       </c>
       <c r="R406" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>326</v>
       </c>
       <c r="S406" s="15"/>
       <c r="V406" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>286276.6162966924</v>
       </c>
       <c r="W406" s="10"/>
@@ -29708,6 +29910,10 @@
       <c r="L407" s="1">
         <v>325</v>
       </c>
+      <c r="M407">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N407" s="14">
         <f t="shared" si="1"/>
         <v>44188.128842592596</v>
@@ -29721,16 +29927,16 @@
         <v>1</v>
       </c>
       <c r="Q407" s="6">
-        <f t="shared" ref="Q407:R407" si="44">K406-O407</f>
+        <f t="shared" ref="Q407:R407" si="45">K406-O407</f>
         <v>286258.80908484635</v>
       </c>
       <c r="R407" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>325</v>
       </c>
       <c r="S407" s="15"/>
       <c r="V407" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>286258.80908484635</v>
       </c>
       <c r="W407" s="10"/>
@@ -29773,6 +29979,10 @@
       <c r="L408" s="1">
         <v>324</v>
       </c>
+      <c r="M408">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N408" s="14">
         <f t="shared" si="1"/>
         <v>44188.169085648151</v>
@@ -29786,16 +29996,16 @@
         <v>1</v>
       </c>
       <c r="Q408" s="6">
-        <f t="shared" ref="Q408:R408" si="45">K407-O408</f>
+        <f t="shared" ref="Q408:R408" si="46">K407-O408</f>
         <v>285286.41812890384</v>
       </c>
       <c r="R408" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>324</v>
       </c>
       <c r="S408" s="15"/>
       <c r="V408" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>285286.41812890384</v>
       </c>
       <c r="W408" s="10"/>
@@ -29838,6 +30048,10 @@
       <c r="L409" s="1">
         <v>323</v>
       </c>
+      <c r="M409">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N409" s="14">
         <f t="shared" si="1"/>
         <v>44188.175069444442</v>
@@ -29851,16 +30065,16 @@
         <v>1</v>
       </c>
       <c r="Q409" s="6">
-        <f t="shared" ref="Q409:R409" si="46">K408-O409</f>
+        <f t="shared" ref="Q409:R409" si="47">K408-O409</f>
         <v>280855.4221807156</v>
       </c>
       <c r="R409" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>323</v>
       </c>
       <c r="S409" s="15"/>
       <c r="V409" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>280855.4221807156</v>
       </c>
       <c r="W409" s="10"/>
@@ -29903,6 +30117,10 @@
       <c r="L410" s="1">
         <v>322</v>
       </c>
+      <c r="M410">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N410" s="14">
         <f t="shared" si="1"/>
         <v>44188.175509259258</v>
@@ -29916,16 +30134,16 @@
         <v>1</v>
       </c>
       <c r="Q410" s="6">
-        <f t="shared" ref="Q410:R410" si="47">K409-O410</f>
+        <f t="shared" ref="Q410:R410" si="48">K409-O410</f>
         <v>279082.72110551235</v>
       </c>
       <c r="R410" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>322</v>
       </c>
       <c r="S410" s="15"/>
       <c r="V410" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>279082.72110551235</v>
       </c>
       <c r="W410" s="10"/>
@@ -29968,6 +30186,10 @@
       <c r="L411" s="1">
         <v>321</v>
       </c>
+      <c r="M411">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N411" s="14">
         <f t="shared" si="1"/>
         <v>44188.186643518522</v>
@@ -29981,16 +30203,16 @@
         <v>1</v>
       </c>
       <c r="Q411" s="6">
-        <f t="shared" ref="Q411:R411" si="48">K410-O411</f>
+        <f t="shared" ref="Q411:R411" si="49">K410-O411</f>
         <v>279082.68288118718</v>
       </c>
       <c r="R411" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>321</v>
       </c>
       <c r="S411" s="15"/>
       <c r="V411" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>279082.68288118718</v>
       </c>
       <c r="W411" s="10"/>
@@ -30033,6 +30255,10 @@
       <c r="L412" s="1">
         <v>320</v>
       </c>
+      <c r="M412">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N412" s="14">
         <f t="shared" si="1"/>
         <v>44188.201574074075</v>
@@ -30046,16 +30272,16 @@
         <v>1</v>
       </c>
       <c r="Q412" s="6">
-        <f t="shared" ref="Q412:R412" si="49">K411-O412</f>
+        <f t="shared" ref="Q412:R412" si="50">K411-O412</f>
         <v>278575.76207542466</v>
       </c>
       <c r="R412" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>320</v>
       </c>
       <c r="S412" s="15"/>
       <c r="V412" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>278575.76207542466</v>
       </c>
       <c r="W412" s="10"/>
@@ -30098,6 +30324,10 @@
       <c r="L413" s="1">
         <v>319</v>
       </c>
+      <c r="M413">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N413" s="14">
         <f t="shared" si="1"/>
         <v>44188.206932870373</v>
@@ -30111,16 +30341,16 @@
         <v>1</v>
       </c>
       <c r="Q413" s="6">
-        <f t="shared" ref="Q413:R413" si="50">K412-O413</f>
+        <f t="shared" ref="Q413:R413" si="51">K412-O413</f>
         <v>278559.51325649687</v>
       </c>
       <c r="R413" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>319</v>
       </c>
       <c r="S413" s="15"/>
       <c r="V413" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>278559.51325649687</v>
       </c>
       <c r="W413" s="10"/>
@@ -30163,6 +30393,10 @@
       <c r="L414" s="1">
         <v>318</v>
       </c>
+      <c r="M414">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N414" s="14">
         <f t="shared" si="1"/>
         <v>44188.226990740739</v>
@@ -30176,16 +30410,16 @@
         <v>1</v>
       </c>
       <c r="Q414" s="6">
-        <f t="shared" ref="Q414:R414" si="51">K413-O414</f>
+        <f t="shared" ref="Q414:R414" si="52">K413-O414</f>
         <v>277399.87682408461</v>
       </c>
       <c r="R414" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>318</v>
       </c>
       <c r="S414" s="15"/>
       <c r="V414" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>277399.87682408461</v>
       </c>
       <c r="W414" s="10"/>
@@ -30228,6 +30462,10 @@
       <c r="L415" s="1">
         <v>317</v>
       </c>
+      <c r="M415">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N415" s="14">
         <f t="shared" si="1"/>
         <v>44188.244560185187</v>
@@ -30241,16 +30479,16 @@
         <v>1</v>
       </c>
       <c r="Q415" s="6">
-        <f t="shared" ref="Q415:R415" si="52">K414-O415</f>
+        <f t="shared" ref="Q415:R415" si="53">K414-O415</f>
         <v>277176.11195152119</v>
       </c>
       <c r="R415" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>317</v>
       </c>
       <c r="S415" s="15"/>
       <c r="V415" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>277176.11195152119</v>
       </c>
       <c r="W415" s="10"/>
@@ -30293,6 +30531,10 @@
       <c r="L416" s="1">
         <v>316</v>
       </c>
+      <c r="M416">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N416" s="14">
         <f t="shared" si="1"/>
         <v>44188.269965277781</v>
@@ -30306,16 +30548,16 @@
         <v>1</v>
       </c>
       <c r="Q416" s="6">
-        <f t="shared" ref="Q416:R416" si="53">K415-O416</f>
+        <f t="shared" ref="Q416:R416" si="54">K415-O416</f>
         <v>271179.0673353016</v>
       </c>
       <c r="R416" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>316</v>
       </c>
       <c r="S416" s="15"/>
       <c r="V416" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>271179.0673353016</v>
       </c>
       <c r="W416" s="10"/>
@@ -30358,6 +30600,10 @@
       <c r="L417" s="1">
         <v>315</v>
       </c>
+      <c r="M417">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N417" s="14">
         <f t="shared" si="1"/>
         <v>44188.280821759261</v>
@@ -30371,16 +30617,16 @@
         <v>1</v>
       </c>
       <c r="Q417" s="6">
-        <f t="shared" ref="Q417:R417" si="54">K416-O417</f>
+        <f t="shared" ref="Q417:R417" si="55">K416-O417</f>
         <v>270359.82337831525</v>
       </c>
       <c r="R417" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>315</v>
       </c>
       <c r="S417" s="15"/>
       <c r="V417" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>270359.82337831525</v>
       </c>
       <c r="W417" s="10"/>
@@ -30423,6 +30669,10 @@
       <c r="L418" s="1">
         <v>314</v>
       </c>
+      <c r="M418">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N418" s="14">
         <f t="shared" si="1"/>
         <v>44188.283819444441</v>
@@ -30436,16 +30686,16 @@
         <v>1</v>
       </c>
       <c r="Q418" s="6">
-        <f t="shared" ref="Q418:R418" si="55">K417-O418</f>
+        <f t="shared" ref="Q418:R418" si="56">K417-O418</f>
         <v>269672.67590501724</v>
       </c>
       <c r="R418" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>314</v>
       </c>
       <c r="S418" s="15"/>
       <c r="V418" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>269672.67590501724</v>
       </c>
       <c r="W418" s="10"/>
@@ -30488,6 +30738,10 @@
       <c r="L419" s="1">
         <v>313</v>
       </c>
+      <c r="M419">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N419" s="14">
         <f t="shared" si="1"/>
         <v>44188.312349537038</v>
@@ -30501,16 +30755,16 @@
         <v>1</v>
       </c>
       <c r="Q419" s="6">
-        <f t="shared" ref="Q419:R419" si="56">K418-O419</f>
+        <f t="shared" ref="Q419:R419" si="57">K418-O419</f>
         <v>269671.73646055144</v>
       </c>
       <c r="R419" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>313</v>
       </c>
       <c r="S419" s="15"/>
       <c r="V419" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>269671.73646055144</v>
       </c>
       <c r="W419" s="10"/>
@@ -30553,6 +30807,10 @@
       <c r="L420" s="1">
         <v>312</v>
       </c>
+      <c r="M420">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N420" s="14">
         <f t="shared" si="1"/>
         <v>44188.341400462959</v>
@@ -30566,16 +30824,16 @@
         <v>1</v>
       </c>
       <c r="Q420" s="6">
-        <f t="shared" ref="Q420:R420" si="57">K419-O420</f>
+        <f t="shared" ref="Q420:R420" si="58">K419-O420</f>
         <v>269321.33397676266</v>
       </c>
       <c r="R420" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>312</v>
       </c>
       <c r="S420" s="15"/>
       <c r="V420" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>269321.33397676266</v>
       </c>
       <c r="W420" s="10"/>
@@ -30618,6 +30876,10 @@
       <c r="L421" s="1">
         <v>311</v>
       </c>
+      <c r="M421">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N421" s="14">
         <f t="shared" si="1"/>
         <v>44188.35491898148</v>
@@ -30631,16 +30893,16 @@
         <v>1</v>
       </c>
       <c r="Q421" s="6">
-        <f t="shared" ref="Q421:R421" si="58">K420-O421</f>
+        <f t="shared" ref="Q421:R421" si="59">K420-O421</f>
         <v>266047.50223688531</v>
       </c>
       <c r="R421" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>311</v>
       </c>
       <c r="S421" s="15"/>
       <c r="V421" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266047.50223688531</v>
       </c>
       <c r="W421" s="10"/>
@@ -30683,6 +30945,10 @@
       <c r="L422" s="1">
         <v>310</v>
       </c>
+      <c r="M422">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N422" s="14">
         <f t="shared" si="1"/>
         <v>44188.355208333334</v>
@@ -30696,16 +30962,16 @@
         <v>1</v>
       </c>
       <c r="Q422" s="6">
-        <f t="shared" ref="Q422:R422" si="59">K421-O422</f>
+        <f t="shared" ref="Q422:R422" si="60">K421-O422</f>
         <v>266047.50223688531</v>
       </c>
       <c r="R422" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>310</v>
       </c>
       <c r="S422" s="15"/>
       <c r="V422" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266047.50223688531</v>
       </c>
       <c r="W422" s="10"/>
@@ -30748,6 +31014,10 @@
       <c r="L423" s="1">
         <v>309</v>
       </c>
+      <c r="M423">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N423" s="14">
         <f t="shared" si="1"/>
         <v>44188.373472222222</v>
@@ -30761,16 +31031,16 @@
         <v>1</v>
       </c>
       <c r="Q423" s="6">
-        <f t="shared" ref="Q423:R423" si="60">K422-O423</f>
+        <f t="shared" ref="Q423:R423" si="61">K422-O423</f>
         <v>266015.2282141521</v>
       </c>
       <c r="R423" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>309</v>
       </c>
       <c r="S423" s="15"/>
       <c r="V423" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266015.2282141521</v>
       </c>
       <c r="W423" s="10"/>
@@ -30813,6 +31083,10 @@
       <c r="L424" s="1">
         <v>308</v>
       </c>
+      <c r="M424">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N424" s="14">
         <f t="shared" si="1"/>
         <v>44188.373472222222</v>
@@ -30826,16 +31100,16 @@
         <v>1</v>
       </c>
       <c r="Q424" s="6">
-        <f t="shared" ref="Q424:R424" si="61">K423-O424</f>
+        <f t="shared" ref="Q424:R424" si="62">K423-O424</f>
         <v>266015.2282141521</v>
       </c>
       <c r="R424" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>308</v>
       </c>
       <c r="S424" s="15"/>
       <c r="V424" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266015.2282141521</v>
       </c>
       <c r="W424" s="10"/>
@@ -30878,6 +31152,10 @@
       <c r="L425" s="1">
         <v>307</v>
       </c>
+      <c r="M425">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N425" s="14">
         <f t="shared" si="1"/>
         <v>44188.373472222222</v>
@@ -30891,16 +31169,16 @@
         <v>1</v>
       </c>
       <c r="Q425" s="6">
-        <f t="shared" ref="Q425:R425" si="62">K424-O425</f>
+        <f t="shared" ref="Q425:R425" si="63">K424-O425</f>
         <v>266011.87057531427</v>
       </c>
       <c r="R425" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>307</v>
       </c>
       <c r="S425" s="15"/>
       <c r="V425" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266011.87057531427</v>
       </c>
       <c r="W425" s="10"/>
@@ -30943,6 +31221,10 @@
       <c r="L426" s="1">
         <v>306</v>
       </c>
+      <c r="M426">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N426" s="14">
         <f t="shared" si="1"/>
         <v>44188.39199074074</v>
@@ -30956,16 +31238,16 @@
         <v>1</v>
       </c>
       <c r="Q426" s="6">
-        <f t="shared" ref="Q426:R426" si="63">K425-O426</f>
+        <f t="shared" ref="Q426:R426" si="64">K425-O426</f>
         <v>266011.26405099808</v>
       </c>
       <c r="R426" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>306</v>
       </c>
       <c r="S426" s="15"/>
       <c r="V426" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266011.26405099808</v>
       </c>
       <c r="W426" s="10"/>
@@ -31008,6 +31290,10 @@
       <c r="L427" s="1">
         <v>305</v>
       </c>
+      <c r="M427">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N427" s="14">
         <f t="shared" si="1"/>
         <v>44188.397407407407</v>
@@ -31021,16 +31307,16 @@
         <v>1</v>
       </c>
       <c r="Q427" s="6">
-        <f t="shared" ref="Q427:R427" si="64">K426-O427</f>
+        <f t="shared" ref="Q427:R427" si="65">K426-O427</f>
         <v>266007.11718875688</v>
       </c>
       <c r="R427" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>305</v>
       </c>
       <c r="S427" s="15"/>
       <c r="V427" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>266007.11718875688</v>
       </c>
       <c r="W427" s="10"/>
@@ -31073,6 +31359,10 @@
       <c r="L428" s="1">
         <v>304</v>
       </c>
+      <c r="M428">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N428" s="14">
         <f t="shared" si="1"/>
         <v>44188.398287037038</v>
@@ -31086,16 +31376,16 @@
         <v>1</v>
       </c>
       <c r="Q428" s="6">
-        <f t="shared" ref="Q428:R428" si="65">K427-O428</f>
+        <f t="shared" ref="Q428:R428" si="66">K427-O428</f>
         <v>265963.86226305057</v>
       </c>
       <c r="R428" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>304</v>
       </c>
       <c r="S428" s="15"/>
       <c r="V428" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>265963.86226305057</v>
       </c>
       <c r="W428" s="10"/>
@@ -31138,6 +31428,10 @@
       <c r="L429" s="1">
         <v>303</v>
       </c>
+      <c r="M429">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N429" s="14">
         <f t="shared" si="1"/>
         <v>44188.412604166668</v>
@@ -31151,16 +31445,16 @@
         <v>1</v>
       </c>
       <c r="Q429" s="6">
-        <f t="shared" ref="Q429:R429" si="66">K428-O429</f>
+        <f t="shared" ref="Q429:R429" si="67">K428-O429</f>
         <v>265752.52109229786</v>
       </c>
       <c r="R429" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>303</v>
       </c>
       <c r="S429" s="15"/>
       <c r="V429" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>265752.52109229786</v>
       </c>
       <c r="W429" s="10"/>
@@ -31203,6 +31497,10 @@
       <c r="L430" s="1">
         <v>302</v>
       </c>
+      <c r="M430">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N430" s="14">
         <f t="shared" si="1"/>
         <v>44188.415775462963</v>
@@ -31216,16 +31514,16 @@
         <v>1</v>
       </c>
       <c r="Q430" s="6">
-        <f t="shared" ref="Q430:R430" si="67">K429-O430</f>
+        <f t="shared" ref="Q430:R430" si="68">K429-O430</f>
         <v>265740.53275279904</v>
       </c>
       <c r="R430" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>302</v>
       </c>
       <c r="S430" s="15"/>
       <c r="V430" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>265740.53275279904</v>
       </c>
       <c r="W430" s="10"/>
@@ -31268,6 +31566,10 @@
       <c r="L431" s="1">
         <v>301</v>
       </c>
+      <c r="M431">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N431" s="14">
         <f t="shared" si="1"/>
         <v>44188.415775462963</v>
@@ -31281,16 +31583,16 @@
         <v>1</v>
       </c>
       <c r="Q431" s="6">
-        <f t="shared" ref="Q431:R431" si="68">K430-O431</f>
+        <f t="shared" ref="Q431:R431" si="69">K430-O431</f>
         <v>265721.89769261301</v>
       </c>
       <c r="R431" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>301</v>
       </c>
       <c r="S431" s="15"/>
       <c r="V431" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>265721.89769261301</v>
       </c>
       <c r="W431" s="10"/>
@@ -31333,6 +31635,10 @@
       <c r="L432" s="1">
         <v>300</v>
       </c>
+      <c r="M432">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N432" s="14">
         <f t="shared" si="1"/>
         <v>44188.44321759259</v>
@@ -31346,16 +31652,16 @@
         <v>1</v>
       </c>
       <c r="Q432" s="6">
-        <f t="shared" ref="Q432:R432" si="69">K431-O432</f>
+        <f t="shared" ref="Q432:R432" si="70">K431-O432</f>
         <v>264379.77253078332</v>
       </c>
       <c r="R432" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>300</v>
       </c>
       <c r="S432" s="15"/>
       <c r="V432" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>264379.77253078332</v>
       </c>
       <c r="W432" s="10"/>
@@ -31398,6 +31704,10 @@
       <c r="L433" s="1">
         <v>299</v>
       </c>
+      <c r="M433">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N433" s="14">
         <f t="shared" si="1"/>
         <v>44188.452256944445</v>
@@ -31411,16 +31721,16 @@
         <v>1</v>
       </c>
       <c r="Q433" s="6">
-        <f t="shared" ref="Q433:R433" si="70">K432-O433</f>
+        <f t="shared" ref="Q433:R433" si="71">K432-O433</f>
         <v>259384.82703653508</v>
       </c>
       <c r="R433" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>299</v>
       </c>
       <c r="S433" s="15"/>
       <c r="V433" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>259384.82703653508</v>
       </c>
       <c r="W433" s="10"/>
@@ -31463,6 +31773,10 @@
       <c r="L434" s="1">
         <v>298</v>
       </c>
+      <c r="M434">
+        <f t="shared" ref="M434:M497" si="72">+L433-L434</f>
+        <v>1</v>
+      </c>
       <c r="N434" s="14">
         <f t="shared" si="1"/>
         <v>44188.479675925926</v>
@@ -31476,16 +31790,16 @@
         <v>1</v>
       </c>
       <c r="Q434" s="6">
-        <f t="shared" ref="Q434:R434" si="71">K433-O434</f>
+        <f t="shared" ref="Q434:R434" si="73">K433-O434</f>
         <v>258050.21839006591</v>
       </c>
       <c r="R434" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>298</v>
       </c>
       <c r="S434" s="15"/>
       <c r="V434" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>258050.21839006591</v>
       </c>
       <c r="W434" s="10"/>
@@ -31528,6 +31842,10 @@
       <c r="L435" s="1">
         <v>297</v>
       </c>
+      <c r="M435">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N435" s="14">
         <f t="shared" si="1"/>
         <v>44188.489374999997</v>
@@ -31541,16 +31859,16 @@
         <v>1</v>
       </c>
       <c r="Q435" s="6">
-        <f t="shared" ref="Q435:R435" si="72">K434-O435</f>
+        <f t="shared" ref="Q435:R435" si="74">K434-O435</f>
         <v>257020.975769905</v>
       </c>
       <c r="R435" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>297</v>
       </c>
       <c r="S435" s="15"/>
       <c r="V435" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>257020.975769905</v>
       </c>
       <c r="W435" s="10"/>
@@ -31593,6 +31911,10 @@
       <c r="L436" s="1">
         <v>296</v>
       </c>
+      <c r="M436">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N436" s="14">
         <f t="shared" si="1"/>
         <v>44188.494398148148</v>
@@ -31606,16 +31928,16 @@
         <v>1</v>
       </c>
       <c r="Q436" s="6">
-        <f t="shared" ref="Q436:R436" si="73">K435-O436</f>
+        <f t="shared" ref="Q436:R436" si="75">K435-O436</f>
         <v>256389.72629121513</v>
       </c>
       <c r="R436" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>296</v>
       </c>
       <c r="S436" s="15"/>
       <c r="V436" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>256389.72629121513</v>
       </c>
       <c r="W436" s="10"/>
@@ -31658,6 +31980,10 @@
       <c r="L437" s="1">
         <v>295</v>
       </c>
+      <c r="M437">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N437" s="14">
         <f t="shared" si="1"/>
         <v>44188.521504629629</v>
@@ -31671,16 +31997,16 @@
         <v>1</v>
       </c>
       <c r="Q437" s="6">
-        <f t="shared" ref="Q437:R437" si="74">K436-O437</f>
+        <f t="shared" ref="Q437:R437" si="76">K436-O437</f>
         <v>255281.57066898185</v>
       </c>
       <c r="R437" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>295</v>
       </c>
       <c r="S437" s="15"/>
       <c r="V437" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>255281.57066898185</v>
       </c>
       <c r="W437" s="10"/>
@@ -31723,6 +32049,10 @@
       <c r="L438" s="1">
         <v>294</v>
       </c>
+      <c r="M438">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N438" s="14">
         <f t="shared" si="1"/>
         <v>44188.531435185185</v>
@@ -31736,16 +32066,16 @@
         <v>1</v>
       </c>
       <c r="Q438" s="6">
-        <f t="shared" ref="Q438:R438" si="75">K437-O438</f>
+        <f t="shared" ref="Q438:R438" si="77">K437-O438</f>
         <v>254324.26323690626</v>
       </c>
       <c r="R438" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>294</v>
       </c>
       <c r="S438" s="15"/>
       <c r="V438" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254324.26323690626</v>
       </c>
       <c r="W438" s="10"/>
@@ -31788,6 +32118,10 @@
       <c r="L439" s="1">
         <v>293</v>
       </c>
+      <c r="M439">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N439" s="14">
         <f t="shared" si="1"/>
         <v>44188.56585648148</v>
@@ -31801,16 +32135,16 @@
         <v>1</v>
       </c>
       <c r="Q439" s="6">
-        <f t="shared" ref="Q439:R439" si="76">K438-O439</f>
+        <f t="shared" ref="Q439:R439" si="78">K438-O439</f>
         <v>254174.53719111017</v>
       </c>
       <c r="R439" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>293</v>
       </c>
       <c r="S439" s="15"/>
       <c r="V439" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254174.53719111017</v>
       </c>
       <c r="W439" s="10"/>
@@ -31853,6 +32187,10 @@
       <c r="L440" s="1">
         <v>292</v>
       </c>
+      <c r="M440">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N440" s="14">
         <f t="shared" si="1"/>
         <v>44188.574791666666</v>
@@ -31866,16 +32204,16 @@
         <v>1</v>
       </c>
       <c r="Q440" s="6">
-        <f t="shared" ref="Q440:R440" si="77">K439-O440</f>
+        <f t="shared" ref="Q440:R440" si="79">K439-O440</f>
         <v>243063.14386583216</v>
       </c>
       <c r="R440" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>292</v>
       </c>
       <c r="S440" s="15"/>
       <c r="V440" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>243063.14386583216</v>
       </c>
       <c r="W440" s="10"/>
@@ -31918,6 +32256,10 @@
       <c r="L441" s="1">
         <v>291</v>
       </c>
+      <c r="M441">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N441" s="14">
         <f t="shared" si="1"/>
         <v>44188.581469907411</v>
@@ -31931,16 +32273,16 @@
         <v>1</v>
       </c>
       <c r="Q441" s="6">
-        <f t="shared" ref="Q441:R441" si="78">K440-O441</f>
+        <f t="shared" ref="Q441:R441" si="80">K440-O441</f>
         <v>242238.00246181912</v>
       </c>
       <c r="R441" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>291</v>
       </c>
       <c r="S441" s="15"/>
       <c r="V441" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>242238.00246181912</v>
       </c>
       <c r="W441" s="10"/>
@@ -31983,6 +32325,10 @@
       <c r="L442" s="1">
         <v>290</v>
       </c>
+      <c r="M442">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N442" s="14">
         <f t="shared" si="1"/>
         <v>44188.589039351849</v>
@@ -31996,16 +32342,16 @@
         <v>1</v>
       </c>
       <c r="Q442" s="6">
-        <f t="shared" ref="Q442:R442" si="79">K441-O442</f>
+        <f t="shared" ref="Q442:R442" si="81">K441-O442</f>
         <v>241931.2742702422</v>
       </c>
       <c r="R442" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>290</v>
       </c>
       <c r="S442" s="15"/>
       <c r="V442" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>241931.2742702422</v>
       </c>
       <c r="W442" s="10"/>
@@ -32048,6 +32394,10 @@
       <c r="L443" s="1">
         <v>289</v>
       </c>
+      <c r="M443">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N443" s="14">
         <f t="shared" si="1"/>
         <v>44188.589907407404</v>
@@ -32061,16 +32411,16 @@
         <v>1</v>
       </c>
       <c r="Q443" s="6">
-        <f t="shared" ref="Q443:R443" si="80">K442-O443</f>
+        <f t="shared" ref="Q443:R443" si="82">K442-O443</f>
         <v>236995.29976170463</v>
       </c>
       <c r="R443" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>289</v>
       </c>
       <c r="S443" s="15"/>
       <c r="V443" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236995.29976170463</v>
       </c>
       <c r="W443" s="10"/>
@@ -32113,6 +32463,10 @@
       <c r="L444" s="1">
         <v>288</v>
       </c>
+      <c r="M444">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N444" s="14">
         <f t="shared" si="1"/>
         <v>44188.594317129631</v>
@@ -32126,16 +32480,16 @@
         <v>1</v>
       </c>
       <c r="Q444" s="6">
-        <f t="shared" ref="Q444:R444" si="81">K443-O444</f>
+        <f t="shared" ref="Q444:R444" si="83">K443-O444</f>
         <v>236233.37830467278</v>
       </c>
       <c r="R444" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>288</v>
       </c>
       <c r="S444" s="15"/>
       <c r="V444" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236233.37830467278</v>
       </c>
       <c r="W444" s="10"/>
@@ -32178,6 +32532,10 @@
       <c r="L445" s="1">
         <v>287</v>
       </c>
+      <c r="M445">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N445" s="14">
         <f t="shared" si="1"/>
         <v>44188.603449074071</v>
@@ -32191,16 +32549,16 @@
         <v>1</v>
       </c>
       <c r="Q445" s="6">
-        <f t="shared" ref="Q445:R445" si="82">K444-O445</f>
+        <f t="shared" ref="Q445:R445" si="84">K444-O445</f>
         <v>235946.83669071068</v>
       </c>
       <c r="R445" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>287</v>
       </c>
       <c r="S445" s="15"/>
       <c r="V445" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>235946.83669071068</v>
       </c>
       <c r="W445" s="10"/>
@@ -32243,6 +32601,10 @@
       <c r="L446" s="1">
         <v>286</v>
       </c>
+      <c r="M446">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N446" s="14">
         <f t="shared" si="1"/>
         <v>44188.674131944441</v>
@@ -32256,16 +32618,16 @@
         <v>1</v>
       </c>
       <c r="Q446" s="6">
-        <f t="shared" ref="Q446:R446" si="83">K445-O446</f>
+        <f t="shared" ref="Q446:R446" si="85">K445-O446</f>
         <v>235946.81151368064</v>
       </c>
       <c r="R446" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>286</v>
       </c>
       <c r="S446" s="15"/>
       <c r="V446" s="10">
-        <f t="shared" ref="V446:V509" si="84">+K446</f>
+        <f t="shared" ref="V446:V509" si="86">+K446</f>
         <v>235946.81151368064</v>
       </c>
       <c r="W446" s="10"/>
@@ -32308,6 +32670,10 @@
       <c r="L447" s="1">
         <v>285</v>
       </c>
+      <c r="M447">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N447" s="14">
         <f t="shared" si="1"/>
         <v>44188.674131944441</v>
@@ -32321,16 +32687,16 @@
         <v>1</v>
       </c>
       <c r="Q447" s="6">
-        <f t="shared" ref="Q447:R447" si="85">K446-O447</f>
+        <f t="shared" ref="Q447:R447" si="87">K446-O447</f>
         <v>229990.32619371914</v>
       </c>
       <c r="R447" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>285</v>
       </c>
       <c r="S447" s="15"/>
       <c r="V447" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>229990.32619371914</v>
       </c>
       <c r="W447" s="10"/>
@@ -32373,6 +32739,10 @@
       <c r="L448" s="1">
         <v>284</v>
       </c>
+      <c r="M448">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N448" s="14">
         <f t="shared" si="1"/>
         <v>44188.737303240741</v>
@@ -32386,16 +32756,16 @@
         <v>1</v>
       </c>
       <c r="Q448" s="6">
-        <f t="shared" ref="Q448:R448" si="86">K447-O448</f>
+        <f t="shared" ref="Q448:R448" si="88">K447-O448</f>
         <v>226666.70069347852</v>
       </c>
       <c r="R448" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>284</v>
       </c>
       <c r="S448" s="15"/>
       <c r="V448" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>226666.70069347852</v>
       </c>
       <c r="W448" s="10"/>
@@ -32438,6 +32808,10 @@
       <c r="L449" s="1">
         <v>283</v>
       </c>
+      <c r="M449">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N449" s="14">
         <f t="shared" si="1"/>
         <v>44188.759016203701</v>
@@ -32451,16 +32825,16 @@
         <v>1</v>
       </c>
       <c r="Q449" s="6">
-        <f t="shared" ref="Q449:R449" si="87">K448-O449</f>
+        <f t="shared" ref="Q449:R449" si="89">K448-O449</f>
         <v>226346.2715772471</v>
       </c>
       <c r="R449" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>283</v>
       </c>
       <c r="S449" s="15"/>
       <c r="V449" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>226346.2715772471</v>
       </c>
       <c r="W449" s="10"/>
@@ -32503,6 +32877,10 @@
       <c r="L450" s="1">
         <v>282</v>
       </c>
+      <c r="M450">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N450" s="14">
         <f t="shared" si="1"/>
         <v>44188.761261574073</v>
@@ -32516,16 +32894,16 @@
         <v>1</v>
       </c>
       <c r="Q450" s="6">
-        <f t="shared" ref="Q450:R450" si="88">K449-O450</f>
+        <f t="shared" ref="Q450:R450" si="90">K449-O450</f>
         <v>226221.84746664652</v>
       </c>
       <c r="R450" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>282</v>
       </c>
       <c r="S450" s="15"/>
       <c r="V450" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>226221.84746664652</v>
       </c>
       <c r="W450" s="10"/>
@@ -32568,6 +32946,10 @@
       <c r="L451" s="1">
         <v>281</v>
       </c>
+      <c r="M451">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N451" s="14">
         <f t="shared" si="1"/>
         <v>44188.788217592592</v>
@@ -32581,16 +32963,16 @@
         <v>1</v>
       </c>
       <c r="Q451" s="6">
-        <f t="shared" ref="Q451:R451" si="89">K450-O451</f>
+        <f t="shared" ref="Q451:R451" si="91">K450-O451</f>
         <v>224548.96702956472</v>
       </c>
       <c r="R451" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>281</v>
       </c>
       <c r="S451" s="15"/>
       <c r="V451" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>224548.96702956472</v>
       </c>
       <c r="W451" s="10"/>
@@ -32633,6 +33015,10 @@
       <c r="L452" s="1">
         <v>280</v>
       </c>
+      <c r="M452">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N452" s="14">
         <f t="shared" si="1"/>
         <v>44188.83798611111</v>
@@ -32646,16 +33032,16 @@
         <v>1</v>
       </c>
       <c r="Q452" s="6">
-        <f t="shared" ref="Q452:R452" si="90">K451-O452</f>
+        <f t="shared" ref="Q452:R452" si="92">K451-O452</f>
         <v>223689.20574726118</v>
       </c>
       <c r="R452" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>280</v>
       </c>
       <c r="S452" s="15"/>
       <c r="V452" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223689.20574726118</v>
       </c>
       <c r="W452" s="10"/>
@@ -32698,6 +33084,10 @@
       <c r="L453" s="1">
         <v>279</v>
       </c>
+      <c r="M453">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N453" s="14">
         <f t="shared" si="1"/>
         <v>44188.842083333337</v>
@@ -32711,16 +33101,16 @@
         <v>1</v>
       </c>
       <c r="Q453" s="6">
-        <f t="shared" ref="Q453:R453" si="91">K452-O453</f>
+        <f t="shared" ref="Q453:R453" si="93">K452-O453</f>
         <v>223670.44632511906</v>
       </c>
       <c r="R453" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>279</v>
       </c>
       <c r="S453" s="15"/>
       <c r="V453" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223670.44632511906</v>
       </c>
       <c r="W453" s="10"/>
@@ -32763,6 +33153,10 @@
       <c r="L454" s="1">
         <v>278</v>
       </c>
+      <c r="M454">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N454" s="14">
         <f t="shared" si="1"/>
         <v>44188.888819444444</v>
@@ -32776,16 +33170,16 @@
         <v>1</v>
       </c>
       <c r="Q454" s="6">
-        <f t="shared" ref="Q454:R454" si="92">K453-O454</f>
+        <f t="shared" ref="Q454:R454" si="94">K453-O454</f>
         <v>223308.17726838423</v>
       </c>
       <c r="R454" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>278</v>
       </c>
       <c r="S454" s="15"/>
       <c r="V454" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223308.17726838423</v>
       </c>
       <c r="W454" s="10"/>
@@ -32828,6 +33222,10 @@
       <c r="L455" s="1">
         <v>277</v>
       </c>
+      <c r="M455">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N455" s="14">
         <f t="shared" si="1"/>
         <v>44188.909826388888</v>
@@ -32841,16 +33239,16 @@
         <v>1</v>
       </c>
       <c r="Q455" s="6">
-        <f t="shared" ref="Q455:R455" si="93">K454-O455</f>
+        <f t="shared" ref="Q455:R455" si="95">K454-O455</f>
         <v>223294.7117374911</v>
       </c>
       <c r="R455" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>277</v>
       </c>
       <c r="S455" s="15"/>
       <c r="V455" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223294.7117374911</v>
       </c>
       <c r="W455" s="10"/>
@@ -32893,6 +33291,10 @@
       <c r="L456" s="1">
         <v>276</v>
       </c>
+      <c r="M456">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N456" s="14">
         <f t="shared" si="1"/>
         <v>44188.984965277778</v>
@@ -32906,18 +33308,18 @@
         <v>1</v>
       </c>
       <c r="Q456" s="6">
-        <f t="shared" ref="Q456:R456" si="94">K455-O456</f>
+        <f t="shared" ref="Q456:R456" si="96">K455-O456</f>
         <v>223279.55397034218</v>
       </c>
       <c r="R456" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>276</v>
       </c>
       <c r="S456" s="14">
         <v>44188</v>
       </c>
       <c r="T456" s="11">
-        <f t="shared" ref="T456" si="95">SUM(O382:O456)+T381</f>
+        <f t="shared" ref="T456" si="97">SUM(O382:O456)+T381</f>
         <v>126818.82236265087</v>
       </c>
       <c r="U456" s="6">
@@ -32925,7 +33327,7 @@
         <v>223279.55397034209</v>
       </c>
       <c r="V456" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223279.55397034218</v>
       </c>
       <c r="W456" s="11"/>
@@ -32976,6 +33378,10 @@
       <c r="L457" s="1">
         <v>275</v>
       </c>
+      <c r="M457">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N457" s="14">
         <f t="shared" si="1"/>
         <v>44189.125277777777</v>
@@ -32989,16 +33395,16 @@
         <v>1</v>
       </c>
       <c r="Q457" s="6">
-        <f t="shared" ref="Q457:R457" si="96">K456-O457</f>
+        <f t="shared" ref="Q457:R457" si="98">K456-O457</f>
         <v>223279.46182770954</v>
       </c>
       <c r="R457" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>275</v>
       </c>
       <c r="S457" s="15"/>
       <c r="V457" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>223279.46182770954</v>
       </c>
       <c r="W457" s="10"/>
@@ -33041,6 +33447,10 @@
       <c r="L458" s="1">
         <v>274</v>
       </c>
+      <c r="M458">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N458" s="14">
         <f t="shared" si="1"/>
         <v>44189.183888888889</v>
@@ -33054,16 +33464,16 @@
         <v>1</v>
       </c>
       <c r="Q458" s="6">
-        <f t="shared" ref="Q458:R458" si="97">K457-O458</f>
+        <f t="shared" ref="Q458:R458" si="99">K457-O458</f>
         <v>221715.18396580964</v>
       </c>
       <c r="R458" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>274</v>
       </c>
       <c r="S458" s="15"/>
       <c r="V458" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>221715.18396580964</v>
       </c>
       <c r="W458" s="10"/>
@@ -33106,6 +33516,10 @@
       <c r="L459" s="1">
         <v>273</v>
       </c>
+      <c r="M459">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N459" s="14">
         <f t="shared" si="1"/>
         <v>44189.193182870367</v>
@@ -33119,16 +33533,16 @@
         <v>1</v>
       </c>
       <c r="Q459" s="6">
-        <f t="shared" ref="Q459:R459" si="98">K458-O459</f>
+        <f t="shared" ref="Q459:R459" si="100">K458-O459</f>
         <v>219776.00018535226</v>
       </c>
       <c r="R459" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>273</v>
       </c>
       <c r="S459" s="15"/>
       <c r="V459" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>219776.00018535226</v>
       </c>
       <c r="W459" s="10"/>
@@ -33171,6 +33585,10 @@
       <c r="L460" s="1">
         <v>272</v>
       </c>
+      <c r="M460">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N460" s="14">
         <f t="shared" si="1"/>
         <v>44189.213009259256</v>
@@ -33184,16 +33602,16 @@
         <v>1</v>
       </c>
       <c r="Q460" s="6">
-        <f t="shared" ref="Q460:R460" si="99">K459-O460</f>
+        <f t="shared" ref="Q460:R460" si="101">K459-O460</f>
         <v>219027.14275567982</v>
       </c>
       <c r="R460" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>272</v>
       </c>
       <c r="S460" s="15"/>
       <c r="V460" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>219027.14275567982</v>
       </c>
       <c r="W460" s="10"/>
@@ -33236,6 +33654,10 @@
       <c r="L461" s="1">
         <v>271</v>
       </c>
+      <c r="M461">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N461" s="14">
         <f t="shared" si="1"/>
         <v>44189.221944444442</v>
@@ -33249,16 +33671,16 @@
         <v>1</v>
       </c>
       <c r="Q461" s="6">
-        <f t="shared" ref="Q461:R461" si="100">K460-O461</f>
+        <f t="shared" ref="Q461:R461" si="102">K460-O461</f>
         <v>218043.23743297512</v>
       </c>
       <c r="R461" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>271</v>
       </c>
       <c r="S461" s="15"/>
       <c r="V461" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>218043.23743297512</v>
       </c>
       <c r="W461" s="10"/>
@@ -33301,6 +33723,10 @@
       <c r="L462" s="1">
         <v>270</v>
       </c>
+      <c r="M462">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N462" s="14">
         <f t="shared" si="1"/>
         <v>44189.228472222225</v>
@@ -33314,16 +33740,16 @@
         <v>1</v>
       </c>
       <c r="Q462" s="6">
-        <f t="shared" ref="Q462:R462" si="101">K461-O462</f>
+        <f t="shared" ref="Q462:R462" si="103">K461-O462</f>
         <v>217135.79409543</v>
       </c>
       <c r="R462" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>270</v>
       </c>
       <c r="S462" s="15"/>
       <c r="V462" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>217135.79409543</v>
       </c>
       <c r="W462" s="10"/>
@@ -33366,6 +33792,10 @@
       <c r="L463" s="1">
         <v>269</v>
       </c>
+      <c r="M463">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N463" s="14">
         <f t="shared" si="1"/>
         <v>44189.234143518515</v>
@@ -33379,16 +33809,16 @@
         <v>1</v>
       </c>
       <c r="Q463" s="6">
-        <f t="shared" ref="Q463:R463" si="102">K462-O463</f>
+        <f t="shared" ref="Q463:R463" si="104">K462-O463</f>
         <v>216678.62061861216</v>
       </c>
       <c r="R463" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>269</v>
       </c>
       <c r="S463" s="15"/>
       <c r="V463" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>216678.62061861216</v>
       </c>
       <c r="W463" s="10"/>
@@ -33431,6 +33861,10 @@
       <c r="L464" s="1">
         <v>268</v>
       </c>
+      <c r="M464">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N464" s="14">
         <f t="shared" si="1"/>
         <v>44189.246354166666</v>
@@ -33444,16 +33878,16 @@
         <v>1</v>
       </c>
       <c r="Q464" s="6">
-        <f t="shared" ref="Q464:R464" si="103">K463-O464</f>
+        <f t="shared" ref="Q464:R464" si="105">K463-O464</f>
         <v>215798.14199882376</v>
       </c>
       <c r="R464" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>268</v>
       </c>
       <c r="S464" s="15"/>
       <c r="V464" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>215798.14199882376</v>
       </c>
       <c r="W464" s="10"/>
@@ -33496,6 +33930,10 @@
       <c r="L465" s="1">
         <v>267</v>
       </c>
+      <c r="M465">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N465" s="14">
         <f t="shared" si="1"/>
         <v>44189.383310185185</v>
@@ -33509,16 +33947,16 @@
         <v>1</v>
       </c>
       <c r="Q465" s="6">
-        <f t="shared" ref="Q465:R465" si="104">K464-O465</f>
+        <f t="shared" ref="Q465:R465" si="106">K464-O465</f>
         <v>214956.22484438529</v>
       </c>
       <c r="R465" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>267</v>
       </c>
       <c r="S465" s="15"/>
       <c r="V465" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214956.22484438529</v>
       </c>
       <c r="W465" s="10"/>
@@ -33561,6 +33999,10 @@
       <c r="L466" s="1">
         <v>266</v>
       </c>
+      <c r="M466">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N466" s="14">
         <f t="shared" si="1"/>
         <v>44189.548634259256</v>
@@ -33574,16 +34016,16 @@
         <v>1</v>
       </c>
       <c r="Q466" s="6">
-        <f t="shared" ref="Q466:R466" si="105">K465-O466</f>
+        <f t="shared" ref="Q466:R466" si="107">K465-O466</f>
         <v>214929.91029063158</v>
       </c>
       <c r="R466" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>266</v>
       </c>
       <c r="S466" s="15"/>
       <c r="V466" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214929.91029063158</v>
       </c>
       <c r="W466" s="10"/>
@@ -33626,6 +34068,10 @@
       <c r="L467" s="1">
         <v>265</v>
       </c>
+      <c r="M467">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N467" s="14">
         <f t="shared" si="1"/>
         <v>44189.620972222219</v>
@@ -33639,16 +34085,16 @@
         <v>1</v>
       </c>
       <c r="Q467" s="6">
-        <f t="shared" ref="Q467:R467" si="106">K466-O467</f>
+        <f t="shared" ref="Q467:R467" si="108">K466-O467</f>
         <v>214679.06889765221</v>
       </c>
       <c r="R467" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>265</v>
       </c>
       <c r="S467" s="15"/>
       <c r="V467" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214679.06889765221</v>
       </c>
       <c r="W467" s="10"/>
@@ -33691,6 +34137,10 @@
       <c r="L468" s="1">
         <v>264</v>
       </c>
+      <c r="M468">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N468" s="14">
         <f t="shared" si="1"/>
         <v>44189.628877314812</v>
@@ -33704,16 +34154,16 @@
         <v>1</v>
       </c>
       <c r="Q468" s="6">
-        <f t="shared" ref="Q468:R468" si="107">K467-O468</f>
+        <f t="shared" ref="Q468:R468" si="109">K467-O468</f>
         <v>214666.87024691762</v>
       </c>
       <c r="R468" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>264</v>
       </c>
       <c r="S468" s="15"/>
       <c r="V468" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214666.87024691762</v>
       </c>
       <c r="W468" s="10"/>
@@ -33756,6 +34206,10 @@
       <c r="L469" s="1">
         <v>263</v>
       </c>
+      <c r="M469">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N469" s="14">
         <f t="shared" si="1"/>
         <v>44189.630740740744</v>
@@ -33769,16 +34223,16 @@
         <v>1</v>
       </c>
       <c r="Q469" s="6">
-        <f t="shared" ref="Q469:R469" si="108">K468-O469</f>
+        <f t="shared" ref="Q469:R469" si="110">K468-O469</f>
         <v>214658.38893610775</v>
       </c>
       <c r="R469" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>263</v>
       </c>
       <c r="S469" s="15"/>
       <c r="V469" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214658.38893610775</v>
       </c>
       <c r="W469" s="10"/>
@@ -33821,6 +34275,10 @@
       <c r="L470" s="1">
         <v>262</v>
       </c>
+      <c r="M470">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N470" s="14">
         <f t="shared" si="1"/>
         <v>44189.634166666663</v>
@@ -33834,16 +34292,16 @@
         <v>1</v>
       </c>
       <c r="Q470" s="6">
-        <f t="shared" ref="Q470:R470" si="109">K469-O470</f>
+        <f t="shared" ref="Q470:R470" si="111">K469-O470</f>
         <v>214656.65967232134</v>
       </c>
       <c r="R470" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>262</v>
       </c>
       <c r="S470" s="15"/>
       <c r="V470" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214656.65967232134</v>
       </c>
       <c r="W470" s="10"/>
@@ -33886,6 +34344,10 @@
       <c r="L471" s="1">
         <v>261</v>
       </c>
+      <c r="M471">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N471" s="14">
         <f t="shared" si="1"/>
         <v>44189.639097222222</v>
@@ -33899,16 +34361,16 @@
         <v>1</v>
       </c>
       <c r="Q471" s="6">
-        <f t="shared" ref="Q471:R471" si="110">K470-O471</f>
+        <f t="shared" ref="Q471:R471" si="112">K470-O471</f>
         <v>214541.41317288726</v>
       </c>
       <c r="R471" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>261</v>
       </c>
       <c r="S471" s="15"/>
       <c r="V471" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>214541.41317288726</v>
       </c>
       <c r="W471" s="10"/>
@@ -33951,6 +34413,10 @@
       <c r="L472" s="1">
         <v>260</v>
       </c>
+      <c r="M472">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N472" s="14">
         <f t="shared" si="1"/>
         <v>44189.648078703707</v>
@@ -33964,16 +34430,16 @@
         <v>1</v>
       </c>
       <c r="Q472" s="6">
-        <f t="shared" ref="Q472:R472" si="111">K471-O472</f>
+        <f t="shared" ref="Q472:R472" si="113">K471-O472</f>
         <v>209185.73730599289</v>
       </c>
       <c r="R472" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>260</v>
       </c>
       <c r="S472" s="15"/>
       <c r="V472" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>209185.73730599289</v>
       </c>
       <c r="W472" s="10"/>
@@ -34016,6 +34482,10 @@
       <c r="L473" s="1">
         <v>259</v>
       </c>
+      <c r="M473">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N473" s="14">
         <f t="shared" si="1"/>
         <v>44189.661678240744</v>
@@ -34029,16 +34499,16 @@
         <v>1</v>
       </c>
       <c r="Q473" s="6">
-        <f t="shared" ref="Q473:R473" si="112">K472-O473</f>
+        <f t="shared" ref="Q473:R473" si="114">K472-O473</f>
         <v>208917.26322002435</v>
       </c>
       <c r="R473" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>259</v>
       </c>
       <c r="S473" s="15"/>
       <c r="V473" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208917.26322002435</v>
       </c>
       <c r="W473" s="10"/>
@@ -34081,6 +34551,10 @@
       <c r="L474" s="1">
         <v>258</v>
       </c>
+      <c r="M474">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N474" s="14">
         <f t="shared" si="1"/>
         <v>44189.664641203701</v>
@@ -34094,16 +34568,16 @@
         <v>1</v>
       </c>
       <c r="Q474" s="6">
-        <f t="shared" ref="Q474:R474" si="113">K473-O474</f>
+        <f t="shared" ref="Q474:R474" si="115">K473-O474</f>
         <v>208913.64031549994</v>
       </c>
       <c r="R474" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>258</v>
       </c>
       <c r="S474" s="15"/>
       <c r="V474" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208913.64031549994</v>
       </c>
       <c r="W474" s="10"/>
@@ -34146,6 +34620,10 @@
       <c r="L475" s="1">
         <v>257</v>
       </c>
+      <c r="M475">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N475" s="14">
         <f t="shared" si="1"/>
         <v>44189.677789351852</v>
@@ -34159,16 +34637,16 @@
         <v>1</v>
       </c>
       <c r="Q475" s="6">
-        <f t="shared" ref="Q475:R475" si="114">K474-O475</f>
+        <f t="shared" ref="Q475:R475" si="116">K474-O475</f>
         <v>208901.70950035544</v>
       </c>
       <c r="R475" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>257</v>
       </c>
       <c r="S475" s="15"/>
       <c r="V475" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208901.70950035544</v>
       </c>
       <c r="W475" s="10"/>
@@ -34211,6 +34689,10 @@
       <c r="L476" s="1">
         <v>256</v>
       </c>
+      <c r="M476">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N476" s="14">
         <f t="shared" si="1"/>
         <v>44189.703055555554</v>
@@ -34224,16 +34706,16 @@
         <v>1</v>
       </c>
       <c r="Q476" s="6">
-        <f t="shared" ref="Q476:R476" si="115">K475-O476</f>
+        <f t="shared" ref="Q476:R476" si="117">K475-O476</f>
         <v>208836.05632746729</v>
       </c>
       <c r="R476" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>256</v>
       </c>
       <c r="S476" s="15"/>
       <c r="V476" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208836.05632746729</v>
       </c>
       <c r="W476" s="10"/>
@@ -34276,6 +34758,10 @@
       <c r="L477" s="1">
         <v>255</v>
       </c>
+      <c r="M477">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N477" s="14">
         <f t="shared" si="1"/>
         <v>44189.707372685189</v>
@@ -34289,16 +34775,16 @@
         <v>1</v>
       </c>
       <c r="Q477" s="6">
-        <f t="shared" ref="Q477:R477" si="116">K476-O477</f>
+        <f t="shared" ref="Q477:R477" si="118">K476-O477</f>
         <v>208833.36185991732</v>
       </c>
       <c r="R477" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>255</v>
       </c>
       <c r="S477" s="15"/>
       <c r="V477" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208833.36185991732</v>
       </c>
       <c r="W477" s="10"/>
@@ -34341,6 +34827,10 @@
       <c r="L478" s="1">
         <v>254</v>
       </c>
+      <c r="M478">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N478" s="14">
         <f t="shared" si="1"/>
         <v>44189.778449074074</v>
@@ -34354,16 +34844,16 @@
         <v>1</v>
       </c>
       <c r="Q478" s="6">
-        <f t="shared" ref="Q478:R478" si="117">K477-O478</f>
+        <f t="shared" ref="Q478:R478" si="119">K477-O478</f>
         <v>208802.33198330045</v>
       </c>
       <c r="R478" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>254</v>
       </c>
       <c r="S478" s="15"/>
       <c r="V478" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208802.33198330045</v>
       </c>
       <c r="W478" s="10"/>
@@ -34406,6 +34896,10 @@
       <c r="L479" s="1">
         <v>253</v>
       </c>
+      <c r="M479">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N479" s="14">
         <f t="shared" si="1"/>
         <v>44189.987210648149</v>
@@ -34419,11 +34913,11 @@
         <v>1</v>
       </c>
       <c r="Q479" s="6">
-        <f t="shared" ref="Q479:R479" si="118">K478-O479</f>
+        <f t="shared" ref="Q479:R479" si="120">K478-O479</f>
         <v>208787.70479025607</v>
       </c>
       <c r="R479" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>253</v>
       </c>
       <c r="S479" s="14">
@@ -34431,7 +34925,7 @@
         <v>44189.987210648149</v>
       </c>
       <c r="T479" s="6">
-        <f t="shared" ref="T479" si="119">SUM(O457:O479)+T456</f>
+        <f t="shared" ref="T479" si="121">SUM(O457:O479)+T456</f>
         <v>141310.67154273699</v>
       </c>
       <c r="U479" s="6">
@@ -34439,7 +34933,7 @@
         <v>208787.70479025599</v>
       </c>
       <c r="V479" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208787.70479025607</v>
       </c>
       <c r="W479" s="10"/>
@@ -34488,6 +34982,10 @@
       <c r="L480" s="1">
         <v>252</v>
       </c>
+      <c r="M480">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N480" s="14">
         <f t="shared" si="1"/>
         <v>44190.235590277778</v>
@@ -34501,16 +34999,16 @@
         <v>1</v>
       </c>
       <c r="Q480" s="6">
-        <f t="shared" ref="Q480:R480" si="120">K479-O480</f>
+        <f t="shared" ref="Q480:R480" si="122">K479-O480</f>
         <v>207984.48616739028</v>
       </c>
       <c r="R480" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>252</v>
       </c>
       <c r="S480" s="15"/>
       <c r="V480" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>207984.48616739028</v>
       </c>
       <c r="W480" s="10"/>
@@ -34553,6 +35051,10 @@
       <c r="L481" s="1">
         <v>251</v>
       </c>
+      <c r="M481">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N481" s="14">
         <f t="shared" si="1"/>
         <v>44190.236724537041</v>
@@ -34566,16 +35068,16 @@
         <v>1</v>
       </c>
       <c r="Q481" s="6">
-        <f t="shared" ref="Q481:R481" si="121">K480-O481</f>
+        <f t="shared" ref="Q481:R481" si="123">K480-O481</f>
         <v>205254.96987832562</v>
       </c>
       <c r="R481" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>251</v>
       </c>
       <c r="S481" s="15"/>
       <c r="V481" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>205254.96987832562</v>
       </c>
       <c r="W481" s="10"/>
@@ -34618,6 +35120,10 @@
       <c r="L482" s="1">
         <v>250</v>
       </c>
+      <c r="M482">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N482" s="14">
         <f t="shared" si="1"/>
         <v>44190.453310185185</v>
@@ -34631,16 +35137,16 @@
         <v>1</v>
       </c>
       <c r="Q482" s="6">
-        <f t="shared" ref="Q482:R482" si="122">K481-O482</f>
+        <f t="shared" ref="Q482:R482" si="124">K481-O482</f>
         <v>197539.53420161793</v>
       </c>
       <c r="R482" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>250</v>
       </c>
       <c r="S482" s="15"/>
       <c r="V482" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>197539.53420161793</v>
       </c>
       <c r="W482" s="10"/>
@@ -34683,6 +35189,10 @@
       <c r="L483" s="1">
         <v>249</v>
       </c>
+      <c r="M483">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N483" s="14">
         <f t="shared" si="1"/>
         <v>44190.65115740741</v>
@@ -34696,16 +35206,16 @@
         <v>1</v>
       </c>
       <c r="Q483" s="6">
-        <f t="shared" ref="Q483:R483" si="123">K482-O483</f>
+        <f t="shared" ref="Q483:R483" si="125">K482-O483</f>
         <v>194787.69166174362</v>
       </c>
       <c r="R483" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>249</v>
       </c>
       <c r="S483" s="15"/>
       <c r="V483" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>194787.69166174362</v>
       </c>
       <c r="W483" s="10"/>
@@ -34748,6 +35258,10 @@
       <c r="L484" s="1">
         <v>248</v>
       </c>
+      <c r="M484">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N484" s="14">
         <f t="shared" si="1"/>
         <v>44190.685312499998</v>
@@ -34761,16 +35275,16 @@
         <v>1</v>
       </c>
       <c r="Q484" s="6">
-        <f t="shared" ref="Q484:R484" si="124">K483-O484</f>
+        <f t="shared" ref="Q484:R484" si="126">K483-O484</f>
         <v>194721.39734782535</v>
       </c>
       <c r="R484" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>248</v>
       </c>
       <c r="S484" s="15"/>
       <c r="V484" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>194721.39734782535</v>
       </c>
       <c r="W484" s="10"/>
@@ -34813,6 +35327,10 @@
       <c r="L485" s="1">
         <v>247</v>
       </c>
+      <c r="M485">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N485" s="14">
         <f t="shared" si="1"/>
         <v>44190.755891203706</v>
@@ -34826,16 +35344,16 @@
         <v>1</v>
       </c>
       <c r="Q485" s="6">
-        <f t="shared" ref="Q485:R485" si="125">K484-O485</f>
+        <f t="shared" ref="Q485:R485" si="127">K484-O485</f>
         <v>190390.76086780647</v>
       </c>
       <c r="R485" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>247</v>
       </c>
       <c r="S485" s="15"/>
       <c r="V485" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>190390.76086780647</v>
       </c>
       <c r="W485" s="10"/>
@@ -34878,6 +35396,10 @@
       <c r="L486" s="1">
         <v>246</v>
       </c>
+      <c r="M486">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N486" s="14">
         <f t="shared" si="1"/>
         <v>44190.80976851852</v>
@@ -34891,16 +35413,16 @@
         <v>1</v>
       </c>
       <c r="Q486" s="6">
-        <f t="shared" ref="Q486:R486" si="126">K485-O486</f>
+        <f t="shared" ref="Q486:R486" si="128">K485-O486</f>
         <v>190145.66270418593</v>
       </c>
       <c r="R486" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>246</v>
       </c>
       <c r="S486" s="15"/>
       <c r="V486" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>190145.66270418593</v>
       </c>
       <c r="W486" s="10"/>
@@ -34943,6 +35465,10 @@
       <c r="L487" s="1">
         <v>245</v>
       </c>
+      <c r="M487">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N487" s="14">
         <f t="shared" si="1"/>
         <v>44190.835543981484</v>
@@ -34956,11 +35482,11 @@
         <v>1</v>
       </c>
       <c r="Q487" s="6">
-        <f t="shared" ref="Q487:R487" si="127">K486-O487</f>
+        <f t="shared" ref="Q487:R487" si="129">K486-O487</f>
         <v>187543.4651124602</v>
       </c>
       <c r="R487" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>245</v>
       </c>
       <c r="S487" s="14">
@@ -34968,7 +35494,7 @@
         <v>44190.835543981484</v>
       </c>
       <c r="T487" s="6">
-        <f t="shared" ref="T487" si="128">SUM(O480:O487)+T479</f>
+        <f t="shared" ref="T487" si="130">SUM(O480:O487)+T479</f>
         <v>162554.91122053287</v>
       </c>
       <c r="U487" s="6">
@@ -34976,7 +35502,7 @@
         <v>187543.46511246011</v>
       </c>
       <c r="V487" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187543.4651124602</v>
       </c>
       <c r="W487" s="10"/>
@@ -35025,6 +35551,10 @@
       <c r="L488" s="1">
         <v>244</v>
       </c>
+      <c r="M488">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N488" s="14">
         <f t="shared" si="1"/>
         <v>44191.082442129627</v>
@@ -35038,16 +35568,16 @@
         <v>1</v>
       </c>
       <c r="Q488" s="6">
-        <f t="shared" ref="Q488:R488" si="129">K487-O488</f>
+        <f t="shared" ref="Q488:R488" si="131">K487-O488</f>
         <v>187543.40107265933</v>
       </c>
       <c r="R488" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>244</v>
       </c>
       <c r="S488" s="15"/>
       <c r="V488" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187543.40107265933</v>
       </c>
       <c r="W488" s="10"/>
@@ -35090,6 +35620,10 @@
       <c r="L489" s="1">
         <v>243</v>
       </c>
+      <c r="M489">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N489" s="14">
         <f t="shared" si="1"/>
         <v>44191.187407407408</v>
@@ -35103,16 +35637,16 @@
         <v>1</v>
       </c>
       <c r="Q489" s="6">
-        <f t="shared" ref="Q489:R489" si="130">K488-O489</f>
+        <f t="shared" ref="Q489:R489" si="132">K488-O489</f>
         <v>187543.40107265933</v>
       </c>
       <c r="R489" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>243</v>
       </c>
       <c r="S489" s="15"/>
       <c r="V489" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187543.40107265933</v>
       </c>
       <c r="W489" s="10"/>
@@ -35155,6 +35689,10 @@
       <c r="L490" s="1">
         <v>242</v>
       </c>
+      <c r="M490">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N490" s="14">
         <f t="shared" si="1"/>
         <v>44191.246689814812</v>
@@ -35168,16 +35706,16 @@
         <v>1</v>
       </c>
       <c r="Q490" s="6">
-        <f t="shared" ref="Q490:R490" si="131">K489-O490</f>
+        <f t="shared" ref="Q490:R490" si="133">K489-O490</f>
         <v>187530.44239780807</v>
       </c>
       <c r="R490" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>242</v>
       </c>
       <c r="S490" s="15"/>
       <c r="V490" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187530.44239780807</v>
       </c>
       <c r="W490" s="10"/>
@@ -35220,6 +35758,10 @@
       <c r="L491" s="1">
         <v>241</v>
       </c>
+      <c r="M491">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N491" s="14">
         <f t="shared" si="1"/>
         <v>44191.549456018518</v>
@@ -35233,16 +35775,16 @@
         <v>1</v>
       </c>
       <c r="Q491" s="6">
-        <f t="shared" ref="Q491:R491" si="132">K490-O491</f>
+        <f t="shared" ref="Q491:R491" si="134">K490-O491</f>
         <v>187524.09259672812</v>
       </c>
       <c r="R491" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>241</v>
       </c>
       <c r="S491" s="15"/>
       <c r="V491" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187524.09259672812</v>
       </c>
       <c r="W491" s="10"/>
@@ -35285,6 +35827,10 @@
       <c r="L492" s="1">
         <v>240</v>
       </c>
+      <c r="M492">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N492" s="14">
         <f t="shared" si="1"/>
         <v>44191.991481481484</v>
@@ -35298,11 +35844,11 @@
         <v>1</v>
       </c>
       <c r="Q492" s="6">
-        <f t="shared" ref="Q492:R492" si="133">K491-O492</f>
+        <f t="shared" ref="Q492:R492" si="135">K491-O492</f>
         <v>187523.70875180245</v>
       </c>
       <c r="R492" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>240</v>
       </c>
       <c r="S492" s="14">
@@ -35310,7 +35856,7 @@
         <v>44191.991481481484</v>
       </c>
       <c r="T492" s="6">
-        <f t="shared" ref="T492" si="134">SUM(O488:O492)+T487</f>
+        <f t="shared" ref="T492" si="136">SUM(O488:O492)+T487</f>
         <v>162574.66758119059</v>
       </c>
       <c r="U492" s="6">
@@ -35318,7 +35864,7 @@
         <v>187523.70875180239</v>
       </c>
       <c r="V492" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187523.70875180245</v>
       </c>
       <c r="W492" s="10"/>
@@ -35367,6 +35913,10 @@
       <c r="L493" s="1">
         <v>239</v>
       </c>
+      <c r="M493">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N493" s="14">
         <f t="shared" si="1"/>
         <v>44192.133136574077</v>
@@ -35380,16 +35930,16 @@
         <v>1</v>
       </c>
       <c r="Q493" s="6">
-        <f t="shared" ref="Q493:R493" si="135">K492-O493</f>
+        <f t="shared" ref="Q493:R493" si="137">K492-O493</f>
         <v>187114.90776460461</v>
       </c>
       <c r="R493" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>239</v>
       </c>
       <c r="S493" s="15"/>
       <c r="V493" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187114.90776460461</v>
       </c>
       <c r="W493" s="10"/>
@@ -35432,6 +35982,10 @@
       <c r="L494" s="1">
         <v>238</v>
       </c>
+      <c r="M494">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N494" s="14">
         <f t="shared" si="1"/>
         <v>44192.313784722224</v>
@@ -35445,16 +35999,16 @@
         <v>1</v>
       </c>
       <c r="Q494" s="6">
-        <f t="shared" ref="Q494:R494" si="136">K493-O494</f>
+        <f t="shared" ref="Q494:R494" si="138">K493-O494</f>
         <v>187069.22597107294</v>
       </c>
       <c r="R494" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>238</v>
       </c>
       <c r="S494" s="15"/>
       <c r="V494" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187069.22597107294</v>
       </c>
       <c r="W494" s="10"/>
@@ -35497,6 +36051,10 @@
       <c r="L495" s="1">
         <v>237</v>
       </c>
+      <c r="M495">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N495" s="14">
         <f t="shared" si="1"/>
         <v>44192.481574074074</v>
@@ -35510,16 +36068,16 @@
         <v>1</v>
       </c>
       <c r="Q495" s="6">
-        <f t="shared" ref="Q495:R495" si="137">K494-O495</f>
+        <f t="shared" ref="Q495:R495" si="139">K494-O495</f>
         <v>187031.14313181397</v>
       </c>
       <c r="R495" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>237</v>
       </c>
       <c r="S495" s="15"/>
       <c r="V495" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>187031.14313181397</v>
       </c>
       <c r="W495" s="10"/>
@@ -35562,6 +36120,10 @@
       <c r="L496" s="1">
         <v>236</v>
       </c>
+      <c r="M496">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N496" s="14">
         <f t="shared" si="1"/>
         <v>44192.525960648149</v>
@@ -35575,16 +36137,16 @@
         <v>1</v>
       </c>
       <c r="Q496" s="6">
-        <f t="shared" ref="Q496:R496" si="138">K495-O496</f>
+        <f t="shared" ref="Q496:R496" si="140">K495-O496</f>
         <v>182593.80087764774</v>
       </c>
       <c r="R496" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>236</v>
       </c>
       <c r="S496" s="15"/>
       <c r="V496" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>182593.80087764774</v>
       </c>
       <c r="W496" s="10"/>
@@ -35627,6 +36189,10 @@
       <c r="L497" s="1">
         <v>235</v>
       </c>
+      <c r="M497">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="N497" s="14">
         <f t="shared" si="1"/>
         <v>44192.616469907407</v>
@@ -35640,16 +36206,16 @@
         <v>1</v>
       </c>
       <c r="Q497" s="6">
-        <f t="shared" ref="Q497:R497" si="139">K496-O497</f>
+        <f t="shared" ref="Q497:R497" si="141">K496-O497</f>
         <v>178418.24741566402</v>
       </c>
       <c r="R497" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>235</v>
       </c>
       <c r="S497" s="15"/>
       <c r="V497" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>178418.24741566402</v>
       </c>
       <c r="W497" s="10"/>
@@ -35692,6 +36258,10 @@
       <c r="L498" s="1">
         <v>234</v>
       </c>
+      <c r="M498">
+        <f t="shared" ref="M498:M535" si="142">+L497-L498</f>
+        <v>1</v>
+      </c>
       <c r="N498" s="14">
         <f t="shared" si="1"/>
         <v>44192.773576388892</v>
@@ -35705,16 +36275,16 @@
         <v>1</v>
       </c>
       <c r="Q498" s="6">
-        <f t="shared" ref="Q498:R498" si="140">K497-O498</f>
+        <f t="shared" ref="Q498:R498" si="143">K497-O498</f>
         <v>178319.66190944292</v>
       </c>
       <c r="R498" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>234</v>
       </c>
       <c r="S498" s="15"/>
       <c r="V498" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>178319.66190944292</v>
       </c>
       <c r="W498" s="10"/>
@@ -35757,6 +36327,10 @@
       <c r="L499" s="1">
         <v>233</v>
       </c>
+      <c r="M499">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N499" s="14">
         <f t="shared" si="1"/>
         <v>44192.894085648149</v>
@@ -35770,11 +36344,11 @@
         <v>1</v>
       </c>
       <c r="Q499" s="6">
-        <f t="shared" ref="Q499:R499" si="141">K498-O499</f>
+        <f t="shared" ref="Q499:R499" si="144">K498-O499</f>
         <v>167548.87095895523</v>
       </c>
       <c r="R499" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>233</v>
       </c>
       <c r="S499" s="14">
@@ -35782,7 +36356,7 @@
         <v>44192.894085648149</v>
       </c>
       <c r="T499" s="6">
-        <f t="shared" ref="T499" si="142">SUM(O493:O499)+T492</f>
+        <f t="shared" ref="T499" si="145">SUM(O493:O499)+T492</f>
         <v>182549.50537403784</v>
       </c>
       <c r="U499" s="6">
@@ -35790,7 +36364,7 @@
         <v>167548.87095895514</v>
       </c>
       <c r="V499" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>167548.87095895523</v>
       </c>
       <c r="W499" s="10"/>
@@ -35839,6 +36413,10 @@
       <c r="L500" s="1">
         <v>232</v>
       </c>
+      <c r="M500">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N500" s="14">
         <f t="shared" si="1"/>
         <v>44193.041504629633</v>
@@ -35852,16 +36430,16 @@
         <v>1</v>
       </c>
       <c r="Q500" s="6">
-        <f t="shared" ref="Q500:R500" si="143">K499-O500</f>
+        <f t="shared" ref="Q500:R500" si="146">K499-O500</f>
         <v>167389.02138143708</v>
       </c>
       <c r="R500" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>232</v>
       </c>
       <c r="S500" s="15"/>
       <c r="V500" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>167389.02138143708</v>
       </c>
       <c r="W500" s="10"/>
@@ -35904,6 +36482,10 @@
       <c r="L501" s="1">
         <v>231</v>
       </c>
+      <c r="M501">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N501" s="14">
         <f t="shared" si="1"/>
         <v>44193.101122685184</v>
@@ -35917,16 +36499,16 @@
         <v>1</v>
       </c>
       <c r="Q501" s="6">
-        <f t="shared" ref="Q501:R501" si="144">K500-O501</f>
+        <f t="shared" ref="Q501:R501" si="147">K500-O501</f>
         <v>164669.41093537703</v>
       </c>
       <c r="R501" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>231</v>
       </c>
       <c r="S501" s="15"/>
       <c r="V501" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>164669.41093537703</v>
       </c>
       <c r="W501" s="10"/>
@@ -35969,6 +36551,10 @@
       <c r="L502" s="1">
         <v>230</v>
       </c>
+      <c r="M502">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N502" s="14">
         <f t="shared" si="1"/>
         <v>44193.119780092595</v>
@@ -35982,16 +36568,16 @@
         <v>1</v>
       </c>
       <c r="Q502" s="6">
-        <f t="shared" ref="Q502:R502" si="145">K501-O502</f>
+        <f t="shared" ref="Q502:R502" si="148">K501-O502</f>
         <v>164669.37514695703</v>
       </c>
       <c r="R502" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>230</v>
       </c>
       <c r="S502" s="15"/>
       <c r="V502" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>164669.37514695703</v>
       </c>
       <c r="W502" s="10"/>
@@ -36034,6 +36620,10 @@
       <c r="L503" s="1">
         <v>229</v>
       </c>
+      <c r="M503">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N503" s="14">
         <f t="shared" si="1"/>
         <v>44193.724236111113</v>
@@ -36047,16 +36637,16 @@
         <v>1</v>
       </c>
       <c r="Q503" s="6">
-        <f t="shared" ref="Q503:R503" si="146">K502-O503</f>
+        <f t="shared" ref="Q503:R503" si="149">K502-O503</f>
         <v>164626.82577505309</v>
       </c>
       <c r="R503" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>229</v>
       </c>
       <c r="S503" s="15"/>
       <c r="V503" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>164626.82577505309</v>
       </c>
       <c r="W503" s="10"/>
@@ -36099,6 +36689,10 @@
       <c r="L504" s="1">
         <v>228</v>
       </c>
+      <c r="M504">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N504" s="14">
         <f t="shared" si="1"/>
         <v>44193.736863425926</v>
@@ -36112,16 +36706,16 @@
         <v>1</v>
       </c>
       <c r="Q504" s="6">
-        <f t="shared" ref="Q504:R504" si="147">K503-O504</f>
+        <f t="shared" ref="Q504:R504" si="150">K503-O504</f>
         <v>164625.04367614639</v>
       </c>
       <c r="R504" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>228</v>
       </c>
       <c r="S504" s="15"/>
       <c r="V504" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>164625.04367614639</v>
       </c>
       <c r="W504" s="10"/>
@@ -36164,6 +36758,10 @@
       <c r="L505" s="1">
         <v>227</v>
       </c>
+      <c r="M505">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N505" s="14">
         <f t="shared" si="1"/>
         <v>44193.977164351854</v>
@@ -36177,11 +36775,11 @@
         <v>1</v>
       </c>
       <c r="Q505" s="6">
-        <f t="shared" ref="Q505:R505" si="148">K504-O505</f>
+        <f t="shared" ref="Q505:R505" si="151">K504-O505</f>
         <v>163899.29638606493</v>
       </c>
       <c r="R505" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>227</v>
       </c>
       <c r="S505" s="14">
@@ -36189,7 +36787,7 @@
         <v>44193.977164351854</v>
       </c>
       <c r="T505" s="6">
-        <f t="shared" ref="T505" si="149">SUM(O500:O505)+T499</f>
+        <f t="shared" ref="T505" si="152">SUM(O500:O505)+T499</f>
         <v>186199.0799469281</v>
       </c>
       <c r="U505" s="6">
@@ -36197,7 +36795,7 @@
         <v>163899.29638606487</v>
       </c>
       <c r="V505" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>163899.29638606493</v>
       </c>
       <c r="W505" s="10"/>
@@ -36246,6 +36844,10 @@
       <c r="L506" s="1">
         <v>226</v>
       </c>
+      <c r="M506">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N506" s="14">
         <f t="shared" si="1"/>
         <v>44194.160324074073</v>
@@ -36259,16 +36861,16 @@
         <v>1</v>
       </c>
       <c r="Q506" s="6">
-        <f t="shared" ref="Q506:R506" si="150">K505-O506</f>
+        <f t="shared" ref="Q506:R506" si="153">K505-O506</f>
         <v>163729.64751764757</v>
       </c>
       <c r="R506" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>226</v>
       </c>
       <c r="S506" s="15"/>
       <c r="V506" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>163729.64751764757</v>
       </c>
       <c r="W506" s="10"/>
@@ -36311,6 +36913,10 @@
       <c r="L507" s="1">
         <v>225</v>
       </c>
+      <c r="M507">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N507" s="14">
         <f t="shared" si="1"/>
         <v>44194.538506944446</v>
@@ -36324,16 +36930,16 @@
         <v>1</v>
       </c>
       <c r="Q507" s="6">
-        <f t="shared" ref="Q507:R507" si="151">K506-O507</f>
+        <f t="shared" ref="Q507:R507" si="154">K506-O507</f>
         <v>163550.16249787548</v>
       </c>
       <c r="R507" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>225</v>
       </c>
       <c r="S507" s="15"/>
       <c r="V507" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>163550.16249787548</v>
       </c>
       <c r="W507" s="10"/>
@@ -36376,6 +36982,10 @@
       <c r="L508" s="1">
         <v>224</v>
       </c>
+      <c r="M508">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N508" s="14">
         <f t="shared" si="1"/>
         <v>44194.687743055554</v>
@@ -36389,16 +36999,16 @@
         <v>1</v>
       </c>
       <c r="Q508" s="6">
-        <f t="shared" ref="Q508:R508" si="152">K507-O508</f>
+        <f t="shared" ref="Q508:R508" si="155">K507-O508</f>
         <v>162118.68517028764</v>
       </c>
       <c r="R508" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>224</v>
       </c>
       <c r="S508" s="15"/>
       <c r="V508" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>162118.68517028764</v>
       </c>
       <c r="W508" s="10"/>
@@ -36441,6 +37051,10 @@
       <c r="L509" s="1">
         <v>223</v>
       </c>
+      <c r="M509">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N509" s="14">
         <f t="shared" si="1"/>
         <v>44194.763171296298</v>
@@ -36454,11 +37068,11 @@
         <v>1</v>
       </c>
       <c r="Q509" s="6">
-        <f t="shared" ref="Q509:R509" si="153">K508-O509</f>
+        <f t="shared" ref="Q509:R509" si="156">K508-O509</f>
         <v>162113.56597836351</v>
       </c>
       <c r="R509" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>223</v>
       </c>
       <c r="S509" s="14">
@@ -36466,7 +37080,7 @@
         <v>44194.763171296298</v>
       </c>
       <c r="T509" s="6">
-        <f t="shared" ref="T509" si="154">SUM(O506:O509)+T505</f>
+        <f t="shared" ref="T509" si="157">SUM(O506:O509)+T505</f>
         <v>187984.81035462953</v>
       </c>
       <c r="U509" s="6">
@@ -36474,7 +37088,7 @@
         <v>162113.56597836345</v>
       </c>
       <c r="V509" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>162113.56597836351</v>
       </c>
       <c r="W509" s="10"/>
@@ -36523,6 +37137,10 @@
       <c r="L510" s="1">
         <v>222</v>
       </c>
+      <c r="M510">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N510" s="14">
         <f t="shared" si="1"/>
         <v>44200.627500000002</v>
@@ -36536,16 +37154,16 @@
         <v>1</v>
       </c>
       <c r="Q510" s="6">
-        <f t="shared" ref="Q510:R510" si="155">K509-O510</f>
+        <f t="shared" ref="Q510:R510" si="158">K509-O510</f>
         <v>156624.65835477909</v>
       </c>
       <c r="R510" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>222</v>
       </c>
       <c r="S510" s="15"/>
       <c r="V510" s="10">
-        <f>+K510</f>
+        <f t="shared" ref="V510:V535" si="159">+K510</f>
         <v>156624.65835477909</v>
       </c>
       <c r="W510" s="10"/>
@@ -36588,6 +37206,10 @@
       <c r="L511" s="1">
         <v>221</v>
       </c>
+      <c r="M511">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N511" s="14">
         <f t="shared" si="1"/>
         <v>44200.690925925926</v>
@@ -36601,16 +37223,16 @@
         <v>1</v>
       </c>
       <c r="Q511" s="6">
-        <f t="shared" ref="Q511:R511" si="156">K510-O511</f>
+        <f t="shared" ref="Q511:R511" si="160">K510-O511</f>
         <v>153147.7723665724</v>
       </c>
       <c r="R511" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>221</v>
       </c>
       <c r="S511" s="15"/>
       <c r="V511" s="10">
-        <f>+K511</f>
+        <f t="shared" si="159"/>
         <v>153147.7723665724</v>
       </c>
       <c r="W511" s="10"/>
@@ -36653,6 +37275,10 @@
       <c r="L512" s="1">
         <v>220</v>
       </c>
+      <c r="M512">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N512" s="14">
         <f t="shared" si="1"/>
         <v>44200.708078703705</v>
@@ -36666,16 +37292,16 @@
         <v>1</v>
       </c>
       <c r="Q512" s="6">
-        <f t="shared" ref="Q512:R512" si="157">K511-O512</f>
+        <f t="shared" ref="Q512:R512" si="161">K511-O512</f>
         <v>152321.20724913004</v>
       </c>
       <c r="R512" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>220</v>
       </c>
       <c r="S512" s="15"/>
       <c r="V512" s="10">
-        <f>+K512</f>
+        <f t="shared" si="159"/>
         <v>152321.20724913004</v>
       </c>
       <c r="W512" s="10"/>
@@ -36718,6 +37344,10 @@
       <c r="L513" s="1">
         <v>219</v>
       </c>
+      <c r="M513">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N513" s="14">
         <f t="shared" si="1"/>
         <v>44200.724259259259</v>
@@ -36731,16 +37361,16 @@
         <v>1</v>
       </c>
       <c r="Q513" s="6">
-        <f t="shared" ref="Q513:R513" si="158">K512-O513</f>
+        <f t="shared" ref="Q513:R513" si="162">K512-O513</f>
         <v>143669.7683791036</v>
       </c>
       <c r="R513" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>219</v>
       </c>
       <c r="S513" s="15"/>
       <c r="V513" s="10">
-        <f>+K513</f>
+        <f t="shared" si="159"/>
         <v>143669.7683791036</v>
       </c>
       <c r="W513" s="10"/>
@@ -36783,6 +37413,10 @@
       <c r="L514" s="1">
         <v>218</v>
       </c>
+      <c r="M514">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N514" s="14">
         <f t="shared" si="1"/>
         <v>44200.85050925926</v>
@@ -36796,16 +37430,16 @@
         <v>1</v>
       </c>
       <c r="Q514" s="6">
-        <f t="shared" ref="Q514:R514" si="159">K513-O514</f>
+        <f t="shared" ref="Q514:R514" si="163">K513-O514</f>
         <v>138315.97573220203</v>
       </c>
       <c r="R514" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>218</v>
       </c>
       <c r="S514" s="15"/>
       <c r="V514" s="10">
-        <f>+K514</f>
+        <f t="shared" si="159"/>
         <v>138315.97573220203</v>
       </c>
       <c r="W514" s="10"/>
@@ -36848,6 +37482,10 @@
       <c r="L515" s="1">
         <v>217</v>
       </c>
+      <c r="M515">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N515" s="14">
         <f t="shared" si="1"/>
         <v>44200.867407407408</v>
@@ -36861,16 +37499,16 @@
         <v>1</v>
       </c>
       <c r="Q515" s="6">
-        <f t="shared" ref="Q515:R515" si="160">K514-O515</f>
+        <f t="shared" ref="Q515:R515" si="164">K514-O515</f>
         <v>138249.80857669815</v>
       </c>
       <c r="R515" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>217</v>
       </c>
       <c r="S515" s="15"/>
       <c r="V515" s="10">
-        <f>+K515</f>
+        <f t="shared" si="159"/>
         <v>138249.80857669815</v>
       </c>
       <c r="W515" s="10"/>
@@ -36913,6 +37551,10 @@
       <c r="L516" s="1">
         <v>216</v>
       </c>
+      <c r="M516">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N516" s="14">
         <f t="shared" si="1"/>
         <v>44200.905092592591</v>
@@ -36926,11 +37568,11 @@
         <v>1</v>
       </c>
       <c r="Q516" s="6">
-        <f t="shared" ref="Q516:R516" si="161">K515-O516</f>
+        <f t="shared" ref="Q516:R516" si="165">K515-O516</f>
         <v>131615.51490141384</v>
       </c>
       <c r="R516" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>216</v>
       </c>
       <c r="S516" s="14">
@@ -36938,7 +37580,7 @@
         <v>44200.905092592591</v>
       </c>
       <c r="T516" s="6">
-        <f t="shared" ref="T516" si="162">SUM(O510:O516)+T509</f>
+        <f t="shared" ref="T516" si="166">SUM(O510:O516)+T509</f>
         <v>218482.86143157916</v>
       </c>
       <c r="U516" s="6">
@@ -36946,7 +37588,7 @@
         <v>131615.51490141382</v>
       </c>
       <c r="V516" s="10">
-        <f>+K516</f>
+        <f t="shared" si="159"/>
         <v>131615.51490141384</v>
       </c>
       <c r="W516" s="10"/>
@@ -36995,6 +37637,10 @@
       <c r="L517" s="1">
         <v>215</v>
       </c>
+      <c r="M517">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N517" s="14">
         <f t="shared" si="1"/>
         <v>44201.220486111109</v>
@@ -37008,16 +37654,16 @@
         <v>1</v>
       </c>
       <c r="Q517" s="6">
-        <f t="shared" ref="Q517:R517" si="163">K516-O517</f>
+        <f t="shared" ref="Q517:R517" si="167">K516-O517</f>
         <v>131615.33999663498</v>
       </c>
       <c r="R517" s="1">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>215</v>
       </c>
       <c r="S517" s="15"/>
       <c r="V517" s="10">
-        <f>+K517</f>
+        <f t="shared" si="159"/>
         <v>131615.33999663498</v>
       </c>
       <c r="W517" s="10"/>
@@ -37060,6 +37706,10 @@
       <c r="L518" s="1">
         <v>214</v>
       </c>
+      <c r="M518">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N518" s="14">
         <f t="shared" si="1"/>
         <v>44201.418402777781</v>
@@ -37073,16 +37723,16 @@
         <v>1</v>
       </c>
       <c r="Q518" s="6">
-        <f t="shared" ref="Q518:R518" si="164">K517-O518</f>
+        <f t="shared" ref="Q518:R518" si="168">K517-O518</f>
         <v>130837.4119574522</v>
       </c>
       <c r="R518" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>214</v>
       </c>
       <c r="S518" s="15"/>
       <c r="V518" s="10">
-        <f>+K518</f>
+        <f t="shared" si="159"/>
         <v>130837.4119574522</v>
       </c>
       <c r="W518" s="10"/>
@@ -37125,6 +37775,10 @@
       <c r="L519" s="1">
         <v>213</v>
       </c>
+      <c r="M519">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N519" s="14">
         <f t="shared" si="1"/>
         <v>44201.446319444447</v>
@@ -37138,16 +37792,16 @@
         <v>1</v>
       </c>
       <c r="Q519" s="6">
-        <f t="shared" ref="Q519:R519" si="165">K518-O519</f>
+        <f t="shared" ref="Q519:R519" si="169">K518-O519</f>
         <v>130073.3260197624</v>
       </c>
       <c r="R519" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>213</v>
       </c>
       <c r="S519" s="15"/>
       <c r="V519" s="10">
-        <f>+K519</f>
+        <f t="shared" si="159"/>
         <v>130073.3260197624</v>
       </c>
       <c r="W519" s="10"/>
@@ -37190,6 +37844,10 @@
       <c r="L520" s="1">
         <v>212</v>
       </c>
+      <c r="M520">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N520" s="14">
         <f t="shared" si="1"/>
         <v>44201.762604166666</v>
@@ -37203,16 +37861,16 @@
         <v>1</v>
       </c>
       <c r="Q520" s="6">
-        <f t="shared" ref="Q520:R520" si="166">K519-O520</f>
+        <f t="shared" ref="Q520:R520" si="170">K519-O520</f>
         <v>129832.06046099655</v>
       </c>
       <c r="R520" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>212</v>
       </c>
       <c r="S520" s="15"/>
       <c r="V520" s="10">
-        <f>+K520</f>
+        <f t="shared" si="159"/>
         <v>129832.06046099655</v>
       </c>
       <c r="W520" s="10"/>
@@ -37255,6 +37913,10 @@
       <c r="L521" s="1">
         <v>211</v>
       </c>
+      <c r="M521">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N521" s="14">
         <f t="shared" si="1"/>
         <v>44201.84165509259</v>
@@ -37268,11 +37930,11 @@
         <v>1</v>
       </c>
       <c r="Q521" s="6">
-        <f t="shared" ref="Q521:R521" si="167">K520-O521</f>
+        <f t="shared" ref="Q521:R521" si="171">K520-O521</f>
         <v>126744.4491174914</v>
       </c>
       <c r="R521" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>211</v>
       </c>
       <c r="S521" s="14">
@@ -37280,7 +37942,7 @@
         <v>44201.84165509259</v>
       </c>
       <c r="T521" s="6">
-        <f t="shared" ref="T521" si="168">SUM(O517:O521)+T516</f>
+        <f t="shared" ref="T521" si="172">SUM(O517:O521)+T516</f>
         <v>223353.92721550161</v>
       </c>
       <c r="U521" s="6">
@@ -37288,7 +37950,7 @@
         <v>126744.44911749137</v>
       </c>
       <c r="V521" s="10">
-        <f>+K521</f>
+        <f t="shared" si="159"/>
         <v>126744.4491174914</v>
       </c>
       <c r="W521" s="10"/>
@@ -37337,6 +37999,10 @@
       <c r="L522" s="1">
         <v>210</v>
       </c>
+      <c r="M522">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N522" s="14">
         <f t="shared" si="1"/>
         <v>44202.370740740742</v>
@@ -37350,16 +38016,16 @@
         <v>1</v>
       </c>
       <c r="Q522" s="6">
-        <f t="shared" ref="Q522:R522" si="169">K521-O522</f>
+        <f t="shared" ref="Q522:R522" si="173">K521-O522</f>
         <v>126432.94766788984</v>
       </c>
       <c r="R522" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>210</v>
       </c>
       <c r="S522" s="15"/>
       <c r="V522" s="10">
-        <f>+K522</f>
+        <f t="shared" si="159"/>
         <v>126432.94766788984</v>
       </c>
       <c r="W522" s="10"/>
@@ -37402,6 +38068,10 @@
       <c r="L523" s="1">
         <v>209</v>
       </c>
+      <c r="M523">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N523" s="14">
         <f t="shared" si="1"/>
         <v>44202.609699074077</v>
@@ -37415,16 +38085,16 @@
         <v>1</v>
       </c>
       <c r="Q523" s="6">
-        <f t="shared" ref="Q523:R523" si="170">K522-O523</f>
+        <f t="shared" ref="Q523:R523" si="174">K522-O523</f>
         <v>125756.16053053472</v>
       </c>
       <c r="R523" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>209</v>
       </c>
       <c r="S523" s="15"/>
       <c r="V523" s="10">
-        <f>+K523</f>
+        <f t="shared" si="159"/>
         <v>125756.16053053472</v>
       </c>
       <c r="W523" s="10"/>
@@ -37467,6 +38137,10 @@
       <c r="L524" s="1">
         <v>208</v>
       </c>
+      <c r="M524">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N524" s="14">
         <f t="shared" si="1"/>
         <v>44202.619386574072</v>
@@ -37480,16 +38154,16 @@
         <v>1</v>
       </c>
       <c r="Q524" s="6">
-        <f t="shared" ref="Q524:R524" si="171">K523-O524</f>
+        <f t="shared" ref="Q524:R524" si="175">K523-O524</f>
         <v>120453.6426357344</v>
       </c>
       <c r="R524" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>208</v>
       </c>
       <c r="S524" s="15"/>
       <c r="V524" s="10">
-        <f>+K524</f>
+        <f t="shared" si="159"/>
         <v>120453.6426357344</v>
       </c>
       <c r="W524" s="10"/>
@@ -37532,6 +38206,10 @@
       <c r="L525" s="1">
         <v>207</v>
       </c>
+      <c r="M525">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N525" s="14">
         <f t="shared" si="1"/>
         <v>44202.73133101852</v>
@@ -37545,16 +38223,16 @@
         <v>1</v>
       </c>
       <c r="Q525" s="6">
-        <f t="shared" ref="Q525:R525" si="172">K524-O525</f>
+        <f t="shared" ref="Q525:R525" si="176">K524-O525</f>
         <v>116291.42349586834</v>
       </c>
       <c r="R525" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>207</v>
       </c>
       <c r="S525" s="15"/>
       <c r="V525" s="10">
-        <f>+K525</f>
+        <f t="shared" si="159"/>
         <v>116291.42349586834</v>
       </c>
       <c r="W525" s="10"/>
@@ -37597,6 +38275,10 @@
       <c r="L526" s="1">
         <v>206</v>
       </c>
+      <c r="M526">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N526" s="14">
         <f t="shared" si="1"/>
         <v>44202.98300925926</v>
@@ -37610,19 +38292,19 @@
         <v>1</v>
       </c>
       <c r="Q526" s="6">
-        <f t="shared" ref="Q526:R526" si="173">K525-O526</f>
+        <f t="shared" ref="Q526:R526" si="177">K525-O526</f>
         <v>105898.00327186704</v>
       </c>
       <c r="R526" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>206</v>
       </c>
       <c r="S526" s="14">
-        <f t="shared" ref="S526:S528" si="174">N526</f>
+        <f t="shared" ref="S526:S528" si="178">N526</f>
         <v>44202.98300925926</v>
       </c>
       <c r="T526" s="6">
-        <f t="shared" ref="T526" si="175">SUM(O522:O526)+T521</f>
+        <f t="shared" ref="T526" si="179">SUM(O522:O526)+T521</f>
         <v>244200.37306112595</v>
       </c>
       <c r="U526" s="6">
@@ -37630,7 +38312,7 @@
         <v>105898.00327186703</v>
       </c>
       <c r="V526" s="10">
-        <f>+K526</f>
+        <f t="shared" si="159"/>
         <v>105898.00327186704</v>
       </c>
       <c r="W526" s="10"/>
@@ -37679,6 +38361,10 @@
       <c r="L527" s="1">
         <v>205</v>
       </c>
+      <c r="M527">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N527" s="14">
         <f t="shared" si="1"/>
         <v>44203.546631944446</v>
@@ -37692,19 +38378,19 @@
         <v>1</v>
       </c>
       <c r="Q527" s="6">
-        <f t="shared" ref="Q527:R527" si="176">K526-O527</f>
+        <f t="shared" ref="Q527:R527" si="180">K526-O527</f>
         <v>96162.343935788464</v>
       </c>
       <c r="R527" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>205</v>
       </c>
       <c r="S527" s="14">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>44203.546631944446</v>
       </c>
       <c r="T527" s="6">
-        <f t="shared" ref="T527" si="177">T526+O527</f>
+        <f t="shared" ref="T527" si="181">T526+O527</f>
         <v>253936.03239720452</v>
       </c>
       <c r="U527" s="6">
@@ -37712,7 +38398,7 @@
         <v>96162.343935788464</v>
       </c>
       <c r="V527" s="10">
-        <f>+K527</f>
+        <f t="shared" si="159"/>
         <v>96162.343935788464</v>
       </c>
       <c r="W527" s="10"/>
@@ -37761,6 +38447,10 @@
       <c r="L528" s="1">
         <v>204</v>
       </c>
+      <c r="M528">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N528" s="14">
         <f t="shared" si="1"/>
         <v>44204.89340277778</v>
@@ -37774,19 +38464,19 @@
         <v>1</v>
       </c>
       <c r="Q528" s="6">
-        <f t="shared" ref="Q528:R528" si="178">K527-O528</f>
+        <f t="shared" ref="Q528:R528" si="182">K527-O528</f>
         <v>95941.272733710604</v>
       </c>
       <c r="R528" s="1">
+        <f t="shared" si="182"/>
+        <v>204</v>
+      </c>
+      <c r="S528" s="14">
         <f t="shared" si="178"/>
-        <v>204</v>
-      </c>
-      <c r="S528" s="14">
-        <f t="shared" si="174"/>
         <v>44204.89340277778</v>
       </c>
       <c r="T528" s="6">
-        <f t="shared" ref="T528" si="179">T527+O528</f>
+        <f t="shared" ref="T528" si="183">T527+O528</f>
         <v>254157.10359928239</v>
       </c>
       <c r="U528" s="6">
@@ -37794,7 +38484,7 @@
         <v>95941.27273371059</v>
       </c>
       <c r="V528" s="10">
-        <f>+K528</f>
+        <f t="shared" si="159"/>
         <v>95941.272733710604</v>
       </c>
       <c r="W528" s="10"/>
@@ -37843,6 +38533,10 @@
       <c r="L529" s="1">
         <v>203</v>
       </c>
+      <c r="M529">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N529" s="14">
         <f t="shared" si="1"/>
         <v>44205.46465277778</v>
@@ -37856,16 +38550,16 @@
         <v>1</v>
       </c>
       <c r="Q529" s="6">
-        <f t="shared" ref="Q529:R529" si="180">K528-O529</f>
+        <f t="shared" ref="Q529:R529" si="184">K528-O529</f>
         <v>95919.013066649626</v>
       </c>
       <c r="R529" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>203</v>
       </c>
       <c r="S529" s="15"/>
       <c r="V529" s="10">
-        <f>+K529</f>
+        <f t="shared" si="159"/>
         <v>95919.013066649626</v>
       </c>
       <c r="W529" s="10"/>
@@ -37908,6 +38602,10 @@
       <c r="L530" s="1">
         <v>202</v>
       </c>
+      <c r="M530">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N530" s="14">
         <f t="shared" si="1"/>
         <v>44205.540717592594</v>
@@ -37921,27 +38619,27 @@
         <v>1</v>
       </c>
       <c r="Q530" s="6">
-        <f t="shared" ref="Q530:R530" si="181">K529-O530</f>
+        <f t="shared" ref="Q530:R530" si="185">K529-O530</f>
         <v>95918.826016129911</v>
       </c>
       <c r="R530" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>202</v>
       </c>
       <c r="S530" s="14">
-        <f t="shared" ref="S530:S535" si="182">N530</f>
+        <f t="shared" ref="S530:S535" si="186">N530</f>
         <v>44205.540717592594</v>
       </c>
       <c r="T530" s="6">
-        <f t="shared" ref="T530" si="183">SUM(O529:O530)+T528</f>
+        <f t="shared" ref="T530" si="187">SUM(O529:O530)+T528</f>
         <v>254179.55031686308</v>
       </c>
       <c r="U530" s="6">
-        <f>$K$368-T530</f>
+        <f t="shared" ref="U530:U537" si="188">$K$368-T530</f>
         <v>95918.826016129897</v>
       </c>
       <c r="V530" s="10">
-        <f>+K530</f>
+        <f t="shared" si="159"/>
         <v>95918.826016129911</v>
       </c>
       <c r="W530" s="10"/>
@@ -37990,6 +38688,10 @@
       <c r="L531" s="1">
         <v>201</v>
       </c>
+      <c r="M531">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N531" s="14">
         <f t="shared" si="1"/>
         <v>44207.889374999999</v>
@@ -38003,27 +38705,27 @@
         <v>1</v>
       </c>
       <c r="Q531" s="6">
-        <f t="shared" ref="Q531:R531" si="184">K530-O531</f>
+        <f t="shared" ref="Q531:R531" si="189">K530-O531</f>
         <v>95918.826016129911</v>
       </c>
       <c r="R531" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>201</v>
       </c>
       <c r="S531" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>44207.889374999999</v>
       </c>
       <c r="T531" s="6">
-        <f t="shared" ref="T531" si="185">T530+O531</f>
+        <f t="shared" ref="T531" si="190">T530+O531</f>
         <v>254179.55031686308</v>
       </c>
       <c r="U531" s="6">
-        <f>$K$368-T531</f>
+        <f t="shared" si="188"/>
         <v>95918.826016129897</v>
       </c>
       <c r="V531" s="10">
-        <f>+K531</f>
+        <f t="shared" si="159"/>
         <v>95918.826016129911</v>
       </c>
       <c r="W531" s="10"/>
@@ -38072,6 +38774,10 @@
       <c r="L532" s="1">
         <v>200</v>
       </c>
+      <c r="M532">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N532" s="14">
         <f t="shared" si="1"/>
         <v>44209.374479166669</v>
@@ -38085,27 +38791,27 @@
         <v>1</v>
       </c>
       <c r="Q532" s="6">
-        <f t="shared" ref="Q532:R532" si="186">K531-O532</f>
+        <f t="shared" ref="Q532:R532" si="191">K531-O532</f>
         <v>95739.342072849162</v>
       </c>
       <c r="R532" s="1">
+        <f t="shared" si="191"/>
+        <v>200</v>
+      </c>
+      <c r="S532" s="14">
         <f t="shared" si="186"/>
-        <v>200</v>
-      </c>
-      <c r="S532" s="14">
-        <f t="shared" si="182"/>
         <v>44209.374479166669</v>
       </c>
       <c r="T532" s="6">
-        <f t="shared" ref="T532" si="187">T531+O532</f>
+        <f t="shared" ref="T532" si="192">T531+O532</f>
         <v>254359.03426014385</v>
       </c>
       <c r="U532" s="6">
-        <f>$K$368-T532</f>
+        <f t="shared" si="188"/>
         <v>95739.342072849133</v>
       </c>
       <c r="V532" s="10">
-        <f>+K532</f>
+        <f t="shared" si="159"/>
         <v>95739.342072849162</v>
       </c>
       <c r="W532" s="10"/>
@@ -38154,6 +38860,10 @@
       <c r="L533" s="1">
         <v>199</v>
       </c>
+      <c r="M533">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N533" s="14">
         <f t="shared" si="1"/>
         <v>44210.528067129628</v>
@@ -38167,27 +38877,27 @@
         <v>1</v>
       </c>
       <c r="Q533" s="6">
-        <f t="shared" ref="Q533:R533" si="188">K532-O533</f>
+        <f t="shared" ref="Q533:R533" si="193">K532-O533</f>
         <v>95728.525377845173</v>
       </c>
       <c r="R533" s="1">
+        <f t="shared" si="193"/>
+        <v>199</v>
+      </c>
+      <c r="S533" s="14">
+        <f t="shared" si="186"/>
+        <v>44210.528067129628</v>
+      </c>
+      <c r="T533" s="6">
+        <f t="shared" ref="T533" si="194">T532+O533</f>
+        <v>254369.85095514782</v>
+      </c>
+      <c r="U533" s="6">
         <f t="shared" si="188"/>
-        <v>199</v>
-      </c>
-      <c r="S533" s="14">
-        <f t="shared" si="182"/>
-        <v>44210.528067129628</v>
-      </c>
-      <c r="T533" s="6">
-        <f t="shared" ref="T533" si="189">T532+O533</f>
-        <v>254369.85095514782</v>
-      </c>
-      <c r="U533" s="6">
-        <f>$K$368-T533</f>
         <v>95728.525377845159</v>
       </c>
       <c r="V533" s="10">
-        <f>+K533</f>
+        <f t="shared" si="159"/>
         <v>95728.525377845173</v>
       </c>
       <c r="W533" s="10"/>
@@ -38236,6 +38946,10 @@
       <c r="L534" s="1">
         <v>198</v>
       </c>
+      <c r="M534">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N534" s="14">
         <f t="shared" si="1"/>
         <v>44215.932766203703</v>
@@ -38249,27 +38963,27 @@
         <v>1</v>
       </c>
       <c r="Q534" s="6">
-        <f t="shared" ref="Q534:R534" si="190">K533-O534</f>
+        <f t="shared" ref="Q534:R534" si="195">K533-O534</f>
         <v>80049.527901492169</v>
       </c>
       <c r="R534" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>198</v>
       </c>
       <c r="S534" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>44215.932766203703</v>
       </c>
       <c r="T534" s="6">
-        <f t="shared" ref="T534" si="191">T533+O534</f>
+        <f t="shared" ref="T534" si="196">T533+O534</f>
         <v>270048.84843150084</v>
       </c>
       <c r="U534" s="6">
-        <f>$K$368-T534</f>
+        <f t="shared" si="188"/>
         <v>80049.52790149214</v>
       </c>
       <c r="V534" s="10">
-        <f>+K534</f>
+        <f t="shared" si="159"/>
         <v>80049.527901492169</v>
       </c>
       <c r="W534" s="10"/>
@@ -38318,6 +39032,10 @@
       <c r="L535" s="1">
         <v>197</v>
       </c>
+      <c r="M535">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
       <c r="N535" s="14">
         <f t="shared" si="1"/>
         <v>44223.625243055554</v>
@@ -38331,27 +39049,27 @@
         <v>1</v>
       </c>
       <c r="Q535" s="6">
-        <f t="shared" ref="Q535:R535" si="192">K534-O535</f>
+        <f t="shared" ref="Q535:R535" si="197">K534-O535</f>
         <v>79406.412651233055</v>
       </c>
       <c r="R535" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="197"/>
         <v>197</v>
       </c>
       <c r="S535" s="14">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>44223.625243055554</v>
       </c>
       <c r="T535" s="6">
-        <f t="shared" ref="T535:T536" si="193">T534+O535</f>
+        <f t="shared" ref="T535:T536" si="198">T534+O535</f>
         <v>270691.96368175995</v>
       </c>
       <c r="U535" s="6">
-        <f>$K$368-T535</f>
+        <f t="shared" si="188"/>
         <v>79406.412651233026</v>
       </c>
       <c r="V535" s="10">
-        <f>+K535</f>
+        <f t="shared" si="159"/>
         <v>79406.412651233055</v>
       </c>
       <c r="W535" s="10"/>
@@ -38384,11 +39102,11 @@
         <v>44276</v>
       </c>
       <c r="T536" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>270691.96368175995</v>
       </c>
       <c r="U536" s="6">
-        <f>$K$368-T536</f>
+        <f t="shared" si="188"/>
         <v>79406.412651233026</v>
       </c>
       <c r="V536" s="10">
@@ -38456,17 +39174,11 @@
         <v>196</v>
       </c>
       <c r="S537" s="14">
-        <f t="shared" ref="S536:S537" si="194">N537</f>
+        <f t="shared" ref="S537" si="199">N537</f>
         <v>44277.547395833331</v>
       </c>
-      <c r="T537" s="6">
-        <f>+T536</f>
-        <v>270691.96368175995</v>
-      </c>
-      <c r="U537" s="6">
-        <f>$K$368-T537</f>
-        <v>79406.412651233026</v>
-      </c>
+      <c r="T537" s="6"/>
+      <c r="U537" s="6"/>
       <c r="V537" s="10">
         <v>0</v>
       </c>
@@ -38849,7 +39561,7 @@
       <c r="G599" s="6"/>
       <c r="S599" s="9"/>
       <c r="V599" s="10">
-        <f>+K599</f>
+        <f t="shared" ref="V599:V638" si="200">+K599</f>
         <v>0</v>
       </c>
     </row>
@@ -38858,7 +39570,7 @@
       <c r="G600" s="6"/>
       <c r="S600" s="9"/>
       <c r="V600" s="10">
-        <f>+K600</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38867,7 +39579,7 @@
       <c r="G601" s="6"/>
       <c r="S601" s="9"/>
       <c r="V601" s="10">
-        <f>+K601</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38875,7 +39587,7 @@
       <c r="C602" s="2"/>
       <c r="S602" s="9"/>
       <c r="V602" s="10">
-        <f>+K602</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38883,7 +39595,7 @@
       <c r="C603" s="2"/>
       <c r="S603" s="9"/>
       <c r="V603" s="10">
-        <f>+K603</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38891,7 +39603,7 @@
       <c r="C604" s="2"/>
       <c r="S604" s="9"/>
       <c r="V604" s="10">
-        <f>+K604</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38899,7 +39611,7 @@
       <c r="C605" s="2"/>
       <c r="S605" s="9"/>
       <c r="V605" s="10">
-        <f>+K605</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38907,7 +39619,7 @@
       <c r="C606" s="2"/>
       <c r="S606" s="9"/>
       <c r="V606" s="10">
-        <f>+K606</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38915,7 +39627,7 @@
       <c r="C607" s="2"/>
       <c r="S607" s="9"/>
       <c r="V607" s="10">
-        <f>+K607</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38923,7 +39635,7 @@
       <c r="C608" s="2"/>
       <c r="S608" s="9"/>
       <c r="V608" s="10">
-        <f>+K608</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38931,7 +39643,7 @@
       <c r="C609" s="2"/>
       <c r="S609" s="9"/>
       <c r="V609" s="10">
-        <f>+K609</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38939,7 +39651,7 @@
       <c r="C610" s="2"/>
       <c r="S610" s="9"/>
       <c r="V610" s="10">
-        <f>+K610</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38947,7 +39659,7 @@
       <c r="C611" s="2"/>
       <c r="S611" s="9"/>
       <c r="V611" s="10">
-        <f>+K611</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38955,7 +39667,7 @@
       <c r="C612" s="2"/>
       <c r="S612" s="9"/>
       <c r="V612" s="10">
-        <f>+K612</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38963,7 +39675,7 @@
       <c r="C613" s="2"/>
       <c r="S613" s="9"/>
       <c r="V613" s="10">
-        <f>+K613</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38971,7 +39683,7 @@
       <c r="C614" s="2"/>
       <c r="S614" s="9"/>
       <c r="V614" s="10">
-        <f>+K614</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38979,7 +39691,7 @@
       <c r="C615" s="2"/>
       <c r="S615" s="9"/>
       <c r="V615" s="10">
-        <f>+K615</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38987,7 +39699,7 @@
       <c r="C616" s="2"/>
       <c r="S616" s="9"/>
       <c r="V616" s="10">
-        <f>+K616</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -38995,7 +39707,7 @@
       <c r="C617" s="2"/>
       <c r="S617" s="9"/>
       <c r="V617" s="10">
-        <f>+K617</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39003,7 +39715,7 @@
       <c r="C618" s="2"/>
       <c r="S618" s="9"/>
       <c r="V618" s="10">
-        <f>+K618</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39011,7 +39723,7 @@
       <c r="C619" s="2"/>
       <c r="S619" s="9"/>
       <c r="V619" s="10">
-        <f>+K619</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39019,7 +39731,7 @@
       <c r="C620" s="2"/>
       <c r="S620" s="9"/>
       <c r="V620" s="10">
-        <f>+K620</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39027,7 +39739,7 @@
       <c r="C621" s="2"/>
       <c r="S621" s="9"/>
       <c r="V621" s="10">
-        <f>+K621</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39035,7 +39747,7 @@
       <c r="C622" s="2"/>
       <c r="S622" s="9"/>
       <c r="V622" s="10">
-        <f>+K622</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39043,7 +39755,7 @@
       <c r="C623" s="2"/>
       <c r="S623" s="9"/>
       <c r="V623" s="10">
-        <f>+K623</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39051,7 +39763,7 @@
       <c r="C624" s="2"/>
       <c r="S624" s="9"/>
       <c r="V624" s="10">
-        <f>+K624</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39059,7 +39771,7 @@
       <c r="C625" s="2"/>
       <c r="S625" s="9"/>
       <c r="V625" s="10">
-        <f>+K625</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39067,7 +39779,7 @@
       <c r="C626" s="2"/>
       <c r="S626" s="9"/>
       <c r="V626" s="10">
-        <f>+K626</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39075,7 +39787,7 @@
       <c r="C627" s="2"/>
       <c r="S627" s="9"/>
       <c r="V627" s="10">
-        <f>+K627</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39083,7 +39795,7 @@
       <c r="C628" s="2"/>
       <c r="S628" s="9"/>
       <c r="V628" s="10">
-        <f>+K628</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39091,7 +39803,7 @@
       <c r="C629" s="2"/>
       <c r="S629" s="9"/>
       <c r="V629" s="10">
-        <f>+K629</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39099,7 +39811,7 @@
       <c r="C630" s="2"/>
       <c r="S630" s="9"/>
       <c r="V630" s="10">
-        <f>+K630</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39107,7 +39819,7 @@
       <c r="C631" s="2"/>
       <c r="S631" s="9"/>
       <c r="V631" s="10">
-        <f>+K631</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39115,7 +39827,7 @@
       <c r="C632" s="2"/>
       <c r="S632" s="9"/>
       <c r="V632" s="10">
-        <f>+K632</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39123,7 +39835,7 @@
       <c r="C633" s="2"/>
       <c r="S633" s="9"/>
       <c r="V633" s="10">
-        <f>+K633</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39131,7 +39843,7 @@
       <c r="C634" s="2"/>
       <c r="S634" s="9"/>
       <c r="V634" s="10">
-        <f>+K634</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39139,7 +39851,7 @@
       <c r="C635" s="2"/>
       <c r="S635" s="9"/>
       <c r="V635" s="10">
-        <f>+K635</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39147,7 +39859,7 @@
       <c r="C636" s="2"/>
       <c r="S636" s="9"/>
       <c r="V636" s="10">
-        <f>+K636</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39155,7 +39867,7 @@
       <c r="C637" s="2"/>
       <c r="S637" s="9"/>
       <c r="V637" s="10">
-        <f>+K637</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39163,7 +39875,7 @@
       <c r="C638" s="2"/>
       <c r="S638" s="9"/>
       <c r="V638" s="10">
-        <f>+K638</f>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -39171,7 +39883,7 @@
       <c r="C639" s="2"/>
       <c r="S639" s="9"/>
       <c r="V639" s="10">
-        <f t="shared" ref="V639:V658" si="195">+K639</f>
+        <f t="shared" ref="V639:V658" si="201">+K639</f>
         <v>0</v>
       </c>
     </row>
@@ -39179,7 +39891,7 @@
       <c r="C640" s="2"/>
       <c r="S640" s="9"/>
       <c r="V640" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39187,7 +39899,7 @@
       <c r="C641" s="2"/>
       <c r="S641" s="9"/>
       <c r="V641" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39195,7 +39907,7 @@
       <c r="C642" s="2"/>
       <c r="S642" s="9"/>
       <c r="V642" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39203,7 +39915,7 @@
       <c r="C643" s="2"/>
       <c r="S643" s="9"/>
       <c r="V643" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39211,7 +39923,7 @@
       <c r="C644" s="2"/>
       <c r="S644" s="9"/>
       <c r="V644" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39219,7 +39931,7 @@
       <c r="C645" s="2"/>
       <c r="S645" s="9"/>
       <c r="V645" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39227,7 +39939,7 @@
       <c r="C646" s="2"/>
       <c r="S646" s="9"/>
       <c r="V646" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39235,7 +39947,7 @@
       <c r="C647" s="2"/>
       <c r="S647" s="9"/>
       <c r="V647" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39243,7 +39955,7 @@
       <c r="C648" s="2"/>
       <c r="S648" s="9"/>
       <c r="V648" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39251,7 +39963,7 @@
       <c r="C649" s="2"/>
       <c r="S649" s="9"/>
       <c r="V649" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39259,7 +39971,7 @@
       <c r="C650" s="2"/>
       <c r="S650" s="9"/>
       <c r="V650" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39267,7 +39979,7 @@
       <c r="C651" s="2"/>
       <c r="S651" s="9"/>
       <c r="V651" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39275,7 +39987,7 @@
       <c r="C652" s="2"/>
       <c r="S652" s="9"/>
       <c r="V652" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39283,7 +39995,7 @@
       <c r="C653" s="2"/>
       <c r="S653" s="9"/>
       <c r="V653" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39291,7 +40003,7 @@
       <c r="C654" s="2"/>
       <c r="S654" s="9"/>
       <c r="V654" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39299,7 +40011,7 @@
       <c r="C655" s="2"/>
       <c r="S655" s="9"/>
       <c r="V655" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39307,7 +40019,7 @@
       <c r="C656" s="2"/>
       <c r="S656" s="9"/>
       <c r="V656" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39315,7 +40027,7 @@
       <c r="C657" s="2"/>
       <c r="S657" s="9"/>
       <c r="V657" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -39323,7 +40035,7 @@
       <c r="C658" s="2"/>
       <c r="S658" s="9"/>
       <c r="V658" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
